--- a/ProcessedData/export_to_r/ante_XWD_export_eledata_CO2.xlsx
+++ b/ProcessedData/export_to_r/ante_XWD_export_eledata_CO2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kriddie/Documents/Ecuador2021/ProcessedData/export_to_r/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kriddie\OneDrive - University of North Carolina at Chapel Hill\Documents\Ecuador2021\ProcessedData\export_to_r\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62EA49A8-14FB-8A4A-A07D-F2663D98C904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2379629-329D-475C-AAD2-69705A781A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12660" yWindow="1520" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3345" yWindow="0" windowWidth="22110" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ante_XWD_export_eledata_CO2" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="51">
   <si>
     <t>lat_fit</t>
   </si>
@@ -183,6 +183,9 @@
   </si>
   <si>
     <t>catchment_ha</t>
+  </si>
+  <si>
+    <t>catchment_pixel</t>
   </si>
 </sst>
 </file>
@@ -666,8 +669,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -727,9 +731,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -767,7 +771,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -873,7 +877,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1015,7 +1019,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1023,19 +1027,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB121"/>
+  <dimension ref="A1:AC121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N102" workbookViewId="0">
-      <selection activeCell="R119" sqref="R119"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="AA109" sqref="AA109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="25" width="10.83203125" customWidth="1"/>
-    <col min="26" max="26" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="5" width="10.875" customWidth="1"/>
+    <col min="6" max="25" width="10.875" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="10.875" customWidth="1"/>
+    <col min="27" max="27" width="12.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1112,157 +1118,142 @@
         <v>48</v>
       </c>
       <c r="Z1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA1" t="s">
         <v>49</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>19</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>0.62618799999999997</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>-0.31745114499999999</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>-78.192163100000002</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>4321.0773989999998</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>6.396210494</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>5</v>
       </c>
-      <c r="F2">
+      <c r="F3">
         <v>2</v>
       </c>
-      <c r="G2">
+      <c r="G3">
         <v>13</v>
       </c>
-      <c r="I2">
+      <c r="I3">
         <v>1</v>
       </c>
-      <c r="J2">
+      <c r="J3">
         <v>5341.6113599999999</v>
       </c>
-      <c r="M2">
+      <c r="M3">
         <v>6.6669999999999998</v>
       </c>
-      <c r="N2">
+      <c r="N3">
         <v>627.6114</v>
       </c>
-      <c r="R2">
+      <c r="R3">
         <v>4325.638672</v>
       </c>
-      <c r="Z2">
+      <c r="Z3">
+        <v>276</v>
+      </c>
+      <c r="AA3">
         <v>0.31590000000000001</v>
       </c>
-      <c r="AA2">
+      <c r="AB3">
         <v>4.2900000000000002E-4</v>
       </c>
-      <c r="AB2">
+      <c r="AC3">
         <v>9.0962499999999995</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>-0.31740414500000003</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>-78.192175939999998</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>4319.8792830000002</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>11.79020835</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>10</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <v>3</v>
       </c>
-      <c r="G3">
+      <c r="G4">
         <v>22</v>
       </c>
-      <c r="I3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" t="s">
-        <v>21</v>
-      </c>
-      <c r="R3">
+      <c r="I4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="R4">
         <v>4324.3598629999997</v>
       </c>
-      <c r="S3">
+      <c r="S4">
         <v>10</v>
       </c>
-      <c r="T3">
-        <f>D5-D2</f>
+      <c r="T4">
+        <f>D5-D3</f>
         <v>10.787995715999999</v>
       </c>
-      <c r="U3">
-        <f>R5-R2</f>
+      <c r="U4">
+        <f>R5-R3</f>
         <v>-2.1860349999997197</v>
       </c>
-      <c r="V3">
-        <f>ABS(U3)/T3</f>
+      <c r="V4">
+        <f>ABS(U4)/T4</f>
         <v>0.20263587950424802</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>-0.317380145</v>
-      </c>
-      <c r="B4">
-        <v>-78.192181180000006</v>
-      </c>
-      <c r="C4">
-        <v>4319.310512</v>
-      </c>
-      <c r="D4">
-        <v>14.556283349999999</v>
-      </c>
-      <c r="H4">
-        <v>44382</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>5341.6113599999999</v>
-      </c>
-      <c r="K4">
-        <v>3.226</v>
-      </c>
-      <c r="L4">
-        <v>0.125</v>
-      </c>
-      <c r="M4">
-        <v>6.6669999999999998</v>
-      </c>
-      <c r="N4">
-        <v>627.6114</v>
-      </c>
-      <c r="O4" t="s">
-        <v>22</v>
-      </c>
-      <c r="P4" t="s">
-        <v>23</v>
-      </c>
       <c r="Z4">
-        <v>0.31590000000000001</v>
-      </c>
-      <c r="AB4">
-        <v>9.0962499999999995</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-0.31735714500000001</v>
       </c>
@@ -1284,17 +1275,47 @@
       <c r="G5">
         <v>54</v>
       </c>
-      <c r="I5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" t="s">
-        <v>21</v>
+      <c r="H5">
+        <v>44382</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>5341.6113599999999</v>
+      </c>
+      <c r="K5">
+        <v>3.226</v>
+      </c>
+      <c r="L5">
+        <v>0.125</v>
+      </c>
+      <c r="M5">
+        <v>6.6669999999999998</v>
+      </c>
+      <c r="N5">
+        <v>627.6114</v>
+      </c>
+      <c r="O5" t="s">
+        <v>22</v>
+      </c>
+      <c r="P5" t="s">
+        <v>23</v>
       </c>
       <c r="R5">
         <v>4323.4526370000003</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z5">
+        <v>351</v>
+      </c>
+      <c r="AA5">
+        <v>0.31590000000000001</v>
+      </c>
+      <c r="AC5">
+        <v>9.0962499999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-0.31730914500000001</v>
       </c>
@@ -1329,11 +1350,11 @@
         <v>10</v>
       </c>
       <c r="T6">
-        <f>D9-D3</f>
+        <f>D8-D4</f>
         <v>21.575991449999997</v>
       </c>
       <c r="U6">
-        <f>R9-R3</f>
+        <f>R8-R4</f>
         <v>-5.9584959999992861</v>
       </c>
       <c r="V6">
@@ -1341,19 +1362,22 @@
         <v>0.27616325367051847</v>
       </c>
       <c r="W6">
-        <f>D6-D2</f>
+        <f>D6-D3</f>
         <v>16.181993585999997</v>
       </c>
       <c r="X6">
-        <f>R6-R2</f>
+        <f>R6-R3</f>
         <v>-3.581543000000238</v>
       </c>
       <c r="Y6">
         <f>ABS(X6)/W6</f>
         <v>0.22132890987540887</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z6">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-0.31726114500000002</v>
       </c>
@@ -1375,322 +1399,364 @@
       <c r="G7">
         <v>32</v>
       </c>
-      <c r="I7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" t="s">
-        <v>21</v>
+      <c r="H7">
+        <v>44382</v>
+      </c>
+      <c r="I7">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="J7">
+        <v>1276.5662279999999</v>
+      </c>
+      <c r="K7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7">
+        <v>6.6660000000000004</v>
+      </c>
+      <c r="N7">
+        <v>627.7364</v>
+      </c>
+      <c r="O7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P7" t="s">
+        <v>23</v>
       </c>
       <c r="R7">
         <v>4320.1567379999997</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z7">
+        <v>522</v>
+      </c>
+      <c r="AA7">
+        <v>0.4698</v>
+      </c>
+      <c r="AC7">
+        <v>8.9049999999999994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>-0.31725314500000001</v>
+        <v>-0.31721314499999997</v>
       </c>
       <c r="B8">
-        <v>-78.192203059999997</v>
+        <v>-78.192208559999997</v>
       </c>
       <c r="C8">
-        <v>4316.7160750000003</v>
+        <v>4316.0213219999996</v>
       </c>
       <c r="D8">
-        <v>28.903883629999999</v>
-      </c>
-      <c r="H8">
+        <v>33.366199799999997</v>
+      </c>
+      <c r="E8">
+        <v>30</v>
+      </c>
+      <c r="F8">
+        <v>11</v>
+      </c>
+      <c r="G8">
+        <v>16</v>
+      </c>
+      <c r="I8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" t="s">
+        <v>21</v>
+      </c>
+      <c r="R8">
+        <v>4318.4013670000004</v>
+      </c>
+      <c r="S8">
+        <v>10</v>
+      </c>
+      <c r="T8">
+        <f>D11-D6</f>
+        <v>21.575991440000003</v>
+      </c>
+      <c r="U8">
+        <f>R11-R6</f>
+        <v>-6.131347999999889</v>
+      </c>
+      <c r="V8">
+        <f t="shared" ref="V8:V68" si="0">ABS(U8)/T8</f>
+        <v>0.28417456583862494</v>
+      </c>
+      <c r="W8">
+        <f>D8-D6</f>
+        <v>10.787995719999998</v>
+      </c>
+      <c r="X8">
+        <f>R8-R6</f>
+        <v>-3.6557619999994131</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" ref="Y8:Y68" si="1">ABS(X8)/W8</f>
+        <v>0.33887314148836295</v>
+      </c>
+      <c r="Z8">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>-0.31716514499999998</v>
+      </c>
+      <c r="B9">
+        <v>-78.19221374</v>
+      </c>
+      <c r="C9">
+        <v>4315.2538269999995</v>
+      </c>
+      <c r="D9">
+        <v>38.760197660000003</v>
+      </c>
+      <c r="E9">
+        <v>35</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" t="s">
+        <v>21</v>
+      </c>
+      <c r="R9">
+        <v>4317.5336909999996</v>
+      </c>
+      <c r="Z9">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>-0.31713514500000001</v>
+      </c>
+      <c r="B10">
+        <v>-78.19221589</v>
+      </c>
+      <c r="C10">
+        <v>4314.8451219999997</v>
+      </c>
+      <c r="D10">
+        <v>42.121552029999997</v>
+      </c>
+      <c r="H10">
         <v>44382</v>
       </c>
-      <c r="I8">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="J8">
-        <v>1276.5662279999999</v>
-      </c>
-      <c r="K8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M8">
-        <v>6.6660000000000004</v>
-      </c>
-      <c r="N8">
-        <v>627.7364</v>
-      </c>
-      <c r="O8" t="s">
+      <c r="I10">
+        <v>5.5E-2</v>
+      </c>
+      <c r="J10">
+        <v>1132.4291940000001</v>
+      </c>
+      <c r="K10">
+        <v>3.0590000000000002</v>
+      </c>
+      <c r="L10">
+        <v>9.7259999999999999E-2</v>
+      </c>
+      <c r="M10">
+        <v>6.6619999999999999</v>
+      </c>
+      <c r="N10">
+        <v>627.8904</v>
+      </c>
+      <c r="O10" t="s">
         <v>22</v>
       </c>
-      <c r="P8" t="s">
+      <c r="P10" t="s">
         <v>23</v>
       </c>
-      <c r="Z8">
-        <v>0.4698</v>
-      </c>
-      <c r="AB8">
-        <v>8.9049999999999994</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>-0.31721314499999997</v>
-      </c>
-      <c r="B9">
-        <v>-78.192208559999997</v>
-      </c>
-      <c r="C9">
-        <v>4316.0213219999996</v>
-      </c>
-      <c r="D9">
-        <v>33.366199799999997</v>
-      </c>
-      <c r="E9">
-        <v>30</v>
-      </c>
-      <c r="F9">
-        <v>11</v>
-      </c>
-      <c r="G9">
-        <v>16</v>
-      </c>
-      <c r="I9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" t="s">
-        <v>21</v>
-      </c>
-      <c r="R9">
-        <v>4318.4013670000004</v>
-      </c>
-      <c r="S9">
+      <c r="Z10">
+        <v>613</v>
+      </c>
+      <c r="AA10">
+        <v>0.55169999999999997</v>
+      </c>
+      <c r="AC10">
+        <v>8.5387500000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>-0.31711714499999999</v>
+      </c>
+      <c r="B11">
+        <v>-78.192216689999995</v>
+      </c>
+      <c r="C11">
+        <v>4314.6356679999999</v>
+      </c>
+      <c r="D11">
+        <v>44.154195520000002</v>
+      </c>
+      <c r="E11">
+        <v>40</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>26</v>
+      </c>
+      <c r="I11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" t="s">
+        <v>21</v>
+      </c>
+      <c r="R11">
+        <v>4315.9257809999999</v>
+      </c>
+      <c r="S11">
         <v>10</v>
       </c>
-      <c r="T9">
-        <f>D12-D6</f>
-        <v>21.575991440000003</v>
-      </c>
-      <c r="U9">
-        <f>R12-R6</f>
-        <v>-6.131347999999889</v>
-      </c>
-      <c r="V9">
-        <f t="shared" ref="V9:V69" si="0">ABS(U9)/T9</f>
-        <v>0.28417456583862494</v>
-      </c>
-      <c r="W9">
-        <f>D9-D6</f>
-        <v>10.787995719999998</v>
-      </c>
-      <c r="X9">
-        <f>R9-R6</f>
-        <v>-3.6557619999994131</v>
-      </c>
-      <c r="Y9">
-        <f t="shared" ref="Y9:Y69" si="1">ABS(X9)/W9</f>
-        <v>0.33887314148836295</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>-0.31716514499999998</v>
-      </c>
-      <c r="B10">
-        <v>-78.19221374</v>
-      </c>
-      <c r="C10">
-        <v>4315.2538269999995</v>
-      </c>
-      <c r="D10">
-        <v>38.760197660000003</v>
-      </c>
-      <c r="E10">
-        <v>35</v>
-      </c>
-      <c r="F10">
-        <v>8</v>
-      </c>
-      <c r="G10">
-        <v>17</v>
-      </c>
-      <c r="I10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J10" t="s">
-        <v>21</v>
-      </c>
-      <c r="R10">
-        <v>4317.5336909999996</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>-0.31713514500000001</v>
-      </c>
-      <c r="B11">
-        <v>-78.19221589</v>
-      </c>
-      <c r="C11">
-        <v>4314.8451219999997</v>
-      </c>
-      <c r="D11">
-        <v>42.121552029999997</v>
-      </c>
-      <c r="H11">
-        <v>44382</v>
-      </c>
-      <c r="I11">
-        <v>5.5E-2</v>
-      </c>
-      <c r="J11">
-        <v>1132.4291940000001</v>
-      </c>
-      <c r="K11">
-        <v>3.0590000000000002</v>
-      </c>
-      <c r="L11">
-        <v>9.7259999999999999E-2</v>
-      </c>
-      <c r="M11">
-        <v>6.6619999999999999</v>
-      </c>
-      <c r="N11">
-        <v>627.8904</v>
-      </c>
-      <c r="O11" t="s">
-        <v>22</v>
-      </c>
-      <c r="P11" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z11">
-        <v>0.55169999999999997</v>
-      </c>
-      <c r="AB11">
-        <v>8.5387500000000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>-0.31711714499999999</v>
-      </c>
-      <c r="B12">
-        <v>-78.192216689999995</v>
-      </c>
-      <c r="C12">
-        <v>4314.6356679999999</v>
-      </c>
-      <c r="D12">
-        <v>44.154195520000002</v>
-      </c>
-      <c r="E12">
-        <v>40</v>
-      </c>
-      <c r="F12">
-        <v>5</v>
-      </c>
-      <c r="G12">
-        <v>26</v>
-      </c>
-      <c r="I12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" t="s">
-        <v>21</v>
-      </c>
-      <c r="R12">
-        <v>4315.9257809999999</v>
-      </c>
-      <c r="S12">
-        <v>10</v>
-      </c>
-      <c r="T12">
-        <f>D15-D9</f>
+      <c r="T11">
+        <f>D14-D8</f>
         <v>20.344088940000006</v>
       </c>
-      <c r="U12">
-        <f>R15-R9</f>
+      <c r="U11">
+        <f>R14-R8</f>
         <v>-4.0791010000002643</v>
       </c>
-      <c r="V12">
+      <c r="V11">
         <f t="shared" si="0"/>
         <v>0.20050546436513283</v>
       </c>
-      <c r="W12">
-        <f>D12-D6</f>
+      <c r="W11">
+        <f>D11-D6</f>
         <v>21.575991440000003</v>
       </c>
-      <c r="X12">
-        <f>R12-R6</f>
+      <c r="X11">
+        <f>R11-R6</f>
         <v>-6.131347999999889</v>
       </c>
-      <c r="Y12">
+      <c r="Y11">
         <f t="shared" si="1"/>
         <v>0.28417456583862494</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z11">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>-0.317096145</v>
+      </c>
+      <c r="B12">
+        <v>-78.192217099999993</v>
+      </c>
+      <c r="C12">
+        <v>4314.4221950000001</v>
+      </c>
+      <c r="D12">
+        <v>46.465539059999998</v>
+      </c>
+      <c r="H12">
+        <v>44382</v>
+      </c>
+      <c r="I12">
+        <v>1.365</v>
+      </c>
+      <c r="J12">
+        <v>11459.573609999999</v>
+      </c>
+      <c r="K12">
+        <v>2.8090000000000002</v>
+      </c>
+      <c r="L12">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="M12">
+        <v>6.6660000000000004</v>
+      </c>
+      <c r="N12">
+        <v>627.90440000000001</v>
+      </c>
+      <c r="O12" t="s">
+        <v>22</v>
+      </c>
+      <c r="P12" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z12">
+        <v>617</v>
+      </c>
+      <c r="AA12">
+        <v>0.55530000000000002</v>
+      </c>
+      <c r="AC12">
+        <v>8.4142499999999991</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>-0.317096145</v>
+        <v>-0.31707814499999998</v>
       </c>
       <c r="B13">
-        <v>-78.192217099999993</v>
+        <v>-78.192216970000004</v>
       </c>
       <c r="C13">
-        <v>4314.4221950000001</v>
+        <v>4314.2635959999998</v>
       </c>
       <c r="D13">
-        <v>46.465539059999998</v>
-      </c>
-      <c r="H13">
-        <v>44382</v>
-      </c>
-      <c r="I13">
-        <v>1.365</v>
-      </c>
-      <c r="J13">
-        <v>11459.573609999999</v>
-      </c>
-      <c r="K13">
-        <v>2.8090000000000002</v>
-      </c>
-      <c r="L13">
-        <v>0.10100000000000001</v>
-      </c>
-      <c r="M13">
-        <v>6.6660000000000004</v>
-      </c>
-      <c r="N13">
-        <v>627.90440000000001</v>
-      </c>
-      <c r="O13" t="s">
-        <v>22</v>
-      </c>
-      <c r="P13" t="s">
-        <v>23</v>
+        <v>48.46939381</v>
+      </c>
+      <c r="E13">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>24</v>
+      </c>
+      <c r="R13">
+        <v>4314.7148440000001</v>
       </c>
       <c r="Z13">
-        <v>0.55530000000000002</v>
+        <v>620</v>
       </c>
       <c r="AB13">
-        <v>8.4142499999999991</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+        <v>4.2900000000000002E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>-0.31707814499999998</v>
+        <v>-0.31703114500000001</v>
       </c>
       <c r="B14">
-        <v>-78.192216970000004</v>
+        <v>-78.192214399999997</v>
       </c>
       <c r="C14">
-        <v>4314.2635959999998</v>
+        <v>4313.9421789999997</v>
       </c>
       <c r="D14">
-        <v>48.46939381</v>
+        <v>53.710288740000003</v>
       </c>
       <c r="E14">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F14" t="s">
         <v>21</v>
@@ -1708,236 +1774,242 @@
         <v>21</v>
       </c>
       <c r="Q14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R14">
-        <v>4314.7148440000001</v>
-      </c>
-      <c r="AA14">
-        <v>4.2900000000000002E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>-0.31703114500000001</v>
-      </c>
-      <c r="B15">
-        <v>-78.192214399999997</v>
-      </c>
-      <c r="C15">
-        <v>4313.9421789999997</v>
-      </c>
-      <c r="D15">
-        <v>53.710288740000003</v>
-      </c>
-      <c r="E15">
-        <v>50</v>
-      </c>
-      <c r="F15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15" t="s">
-        <v>21</v>
-      </c>
-      <c r="J15" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>25</v>
-      </c>
-      <c r="R15">
         <v>4314.3222660000001</v>
       </c>
-      <c r="S15">
+      <c r="S14">
         <v>10</v>
       </c>
-      <c r="T15">
-        <f>D16-D12</f>
+      <c r="T14">
+        <f>D15-D11</f>
         <v>63.855748079999998</v>
       </c>
-      <c r="U15">
-        <f>R16-R12</f>
+      <c r="U14">
+        <f>R15-R11</f>
         <v>-2.731445000000349</v>
       </c>
-      <c r="V15">
+      <c r="V14">
         <f t="shared" si="0"/>
         <v>4.2775240790826376E-2</v>
       </c>
-      <c r="W15">
-        <f>D15-D9</f>
+      <c r="W14">
+        <f>D14-D8</f>
         <v>20.344088940000006</v>
       </c>
-      <c r="X15">
-        <f>R15-R9</f>
+      <c r="X14">
+        <f>R14-R8</f>
         <v>-4.0791010000002643</v>
       </c>
-      <c r="Y15">
+      <c r="Y14">
         <f t="shared" si="1"/>
         <v>0.20050546436513283</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z14">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>-0.31655414500000001</v>
+      </c>
+      <c r="B15">
+        <v>-78.192161440000007</v>
+      </c>
+      <c r="C15">
+        <v>4312.1498929999998</v>
+      </c>
+      <c r="D15">
+        <v>108.0099436</v>
+      </c>
+      <c r="E15">
+        <v>95</v>
+      </c>
+      <c r="F15">
+        <v>22</v>
+      </c>
+      <c r="G15">
+        <v>40</v>
+      </c>
+      <c r="I15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" t="s">
+        <v>21</v>
+      </c>
+      <c r="R15">
+        <v>4313.1943359999996</v>
+      </c>
+      <c r="Z15">
+        <v>2782</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>-0.31655414500000001</v>
+        <v>-0.31653614499999999</v>
       </c>
       <c r="B16">
-        <v>-78.192161440000007</v>
+        <v>-78.192169199999995</v>
       </c>
       <c r="C16">
-        <v>4312.1498929999998</v>
+        <v>4312.0184820000004</v>
       </c>
       <c r="D16">
-        <v>108.0099436</v>
-      </c>
-      <c r="E16">
-        <v>95</v>
-      </c>
-      <c r="F16">
+        <v>110.19216520000001</v>
+      </c>
+      <c r="H16">
+        <v>44383</v>
+      </c>
+      <c r="I16">
+        <v>0.255</v>
+      </c>
+      <c r="J16">
+        <v>4894.4926809999997</v>
+      </c>
+      <c r="K16">
+        <v>2.4049999999999998</v>
+      </c>
+      <c r="L16">
+        <v>0.13589999999999999</v>
+      </c>
+      <c r="M16">
+        <v>6.89</v>
+      </c>
+      <c r="N16">
+        <v>626.43939999999998</v>
+      </c>
+      <c r="O16" t="s">
         <v>22</v>
       </c>
-      <c r="G16">
-        <v>40</v>
-      </c>
-      <c r="I16" t="s">
-        <v>21</v>
-      </c>
-      <c r="J16" t="s">
-        <v>21</v>
-      </c>
-      <c r="R16">
-        <v>4313.1943359999996</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="P16" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z16">
+        <v>2782</v>
+      </c>
+      <c r="AA16">
+        <v>2.5047000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>-0.31653614499999999</v>
+        <v>-0.31652214499999998</v>
       </c>
       <c r="B17">
-        <v>-78.192169199999995</v>
+        <v>-78.192176099999998</v>
       </c>
       <c r="C17">
-        <v>4312.0184820000004</v>
+        <v>4311.9106629999997</v>
       </c>
       <c r="D17">
-        <v>110.19216520000001</v>
-      </c>
-      <c r="H17">
-        <v>44383</v>
-      </c>
-      <c r="I17">
-        <v>0.255</v>
-      </c>
-      <c r="J17">
-        <v>4894.4926809999997</v>
-      </c>
-      <c r="K17">
-        <v>2.4049999999999998</v>
-      </c>
-      <c r="L17">
-        <v>0.13589999999999999</v>
-      </c>
-      <c r="M17">
-        <v>6.89</v>
-      </c>
-      <c r="N17">
-        <v>626.43939999999998</v>
-      </c>
-      <c r="O17" t="s">
-        <v>22</v>
-      </c>
-      <c r="P17" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z17">
-        <v>2.5047000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>-0.31652214499999998</v>
-      </c>
-      <c r="B18">
-        <v>-78.192176099999998</v>
-      </c>
-      <c r="C18">
-        <v>4311.9106629999997</v>
-      </c>
-      <c r="D18">
         <v>111.9639225</v>
       </c>
-      <c r="E18">
+      <c r="E17">
         <v>100</v>
       </c>
-      <c r="F18">
+      <c r="F17">
         <v>15</v>
       </c>
-      <c r="G18">
+      <c r="G17">
         <v>16</v>
       </c>
-      <c r="I18" t="s">
-        <v>21</v>
-      </c>
-      <c r="J18" t="s">
-        <v>21</v>
-      </c>
-      <c r="R18">
+      <c r="I17" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17">
         <v>4313.1064450000003</v>
       </c>
-      <c r="S18">
+      <c r="S17">
         <v>50</v>
       </c>
-      <c r="T18">
-        <f>D20-D16</f>
+      <c r="T17">
+        <f>D19-D15</f>
         <v>11.861936700000001</v>
       </c>
-      <c r="U18">
-        <f>R20-R16</f>
+      <c r="U17">
+        <f>R19-R15</f>
         <v>-0.32958999999937078</v>
       </c>
-      <c r="V18">
+      <c r="V17">
         <f t="shared" si="0"/>
         <v>2.7785513304869579E-2</v>
       </c>
-      <c r="W18">
-        <f>D18-D15</f>
+      <c r="W17">
+        <f>D17-D14</f>
         <v>58.253633759999992</v>
       </c>
-      <c r="X18">
-        <f>R18-R15</f>
+      <c r="X17">
+        <f>R17-R14</f>
         <v>-1.215820999999778</v>
       </c>
-      <c r="Y18">
+      <c r="Y17">
         <f t="shared" si="1"/>
         <v>2.0871161531465263E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z17">
+        <v>2783</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>-0.31649114499999997</v>
+      </c>
+      <c r="B18">
+        <v>-78.192193919999994</v>
+      </c>
+      <c r="C18">
+        <v>4311.6518610000003</v>
+      </c>
+      <c r="D18">
+        <v>115.91790140000001</v>
+      </c>
+      <c r="E18">
+        <v>105</v>
+      </c>
+      <c r="F18">
+        <v>19</v>
+      </c>
+      <c r="G18">
+        <v>29</v>
+      </c>
+      <c r="I18" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" t="s">
+        <v>21</v>
+      </c>
+      <c r="R18">
+        <v>4312.9960940000001</v>
+      </c>
+      <c r="Z18">
+        <v>2784</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>-0.31649114499999997</v>
+        <v>-0.316461145</v>
       </c>
       <c r="B19">
-        <v>-78.192193919999994</v>
+        <v>-78.192214120000003</v>
       </c>
       <c r="C19">
-        <v>4311.6518610000003</v>
+        <v>4311.3701149999997</v>
       </c>
       <c r="D19">
-        <v>115.91790140000001</v>
+        <v>119.8718803</v>
       </c>
       <c r="E19">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F19">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G19">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="I19" t="s">
         <v>21</v>
@@ -1945,93 +2017,102 @@
       <c r="J19" t="s">
         <v>21</v>
       </c>
+      <c r="Q19" t="s">
+        <v>26</v>
+      </c>
       <c r="R19">
-        <v>4312.9960940000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>-0.316461145</v>
-      </c>
-      <c r="B20">
-        <v>-78.192214120000003</v>
-      </c>
-      <c r="C20">
-        <v>4311.3701149999997</v>
-      </c>
-      <c r="D20">
-        <v>119.8718803</v>
-      </c>
-      <c r="E20">
-        <v>110</v>
-      </c>
-      <c r="F20">
-        <v>7</v>
-      </c>
-      <c r="G20">
-        <v>42</v>
-      </c>
-      <c r="I20" t="s">
-        <v>21</v>
-      </c>
-      <c r="J20" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>26</v>
-      </c>
-      <c r="R20">
         <v>4312.8647460000002</v>
       </c>
-      <c r="S20">
+      <c r="S19">
         <v>10</v>
       </c>
-      <c r="T20">
-        <f>D22-D18</f>
+      <c r="T19">
+        <f>D21-D17</f>
         <v>16.303840800000017</v>
       </c>
-      <c r="U20">
-        <f>R22-R18</f>
+      <c r="U19">
+        <f>R21-R17</f>
         <v>-0.57861300000058691</v>
       </c>
-      <c r="V20">
+      <c r="V19">
         <f t="shared" si="0"/>
         <v>3.5489367634194899E-2</v>
       </c>
-      <c r="W20">
-        <f>D20-D18</f>
+      <c r="W19">
+        <f>D19-D17</f>
         <v>7.9079578000000055</v>
       </c>
-      <c r="X20">
-        <f>R20-R18</f>
+      <c r="X19">
+        <f>R19-R17</f>
         <v>-0.24169900000015332</v>
       </c>
-      <c r="Y20">
+      <c r="Y19">
         <f t="shared" si="1"/>
         <v>3.0564022483801464E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z19">
+        <v>2793</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>-0.31643314500000003</v>
+      </c>
+      <c r="B20">
+        <v>-78.192234990000003</v>
+      </c>
+      <c r="C20">
+        <v>4311.0603160000001</v>
+      </c>
+      <c r="D20">
+        <v>123.8258592</v>
+      </c>
+      <c r="E20">
+        <v>115</v>
+      </c>
+      <c r="F20">
+        <v>11</v>
+      </c>
+      <c r="G20">
+        <v>20</v>
+      </c>
+      <c r="I20" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>24</v>
+      </c>
+      <c r="R20">
+        <v>4312.7285160000001</v>
+      </c>
+      <c r="Z20">
+        <v>2982</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>-0.31643314500000003</v>
+        <v>-0.31640214500000002</v>
       </c>
       <c r="B21">
-        <v>-78.192234990000003</v>
+        <v>-78.192259359999994</v>
       </c>
       <c r="C21">
-        <v>4311.0603160000001</v>
+        <v>4310.677036</v>
       </c>
       <c r="D21">
-        <v>123.8258592</v>
+        <v>128.26776330000001</v>
       </c>
       <c r="E21">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F21">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G21">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="I21" t="s">
         <v>21</v>
@@ -2039,219 +2120,231 @@
       <c r="J21" t="s">
         <v>21</v>
       </c>
-      <c r="Q21" t="s">
-        <v>24</v>
-      </c>
       <c r="R21">
-        <v>4312.7285160000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>-0.31640214500000002</v>
-      </c>
-      <c r="B22">
-        <v>-78.192259359999994</v>
-      </c>
-      <c r="C22">
-        <v>4310.677036</v>
-      </c>
-      <c r="D22">
-        <v>128.26776330000001</v>
-      </c>
-      <c r="E22">
-        <v>120</v>
-      </c>
-      <c r="F22">
-        <v>7</v>
-      </c>
-      <c r="G22">
-        <v>250</v>
-      </c>
-      <c r="I22" t="s">
-        <v>21</v>
-      </c>
-      <c r="J22" t="s">
-        <v>21</v>
-      </c>
-      <c r="R22">
         <v>4312.5278319999998</v>
       </c>
-      <c r="S22">
+      <c r="S21">
         <v>10</v>
       </c>
-      <c r="T22">
-        <f>D25-D20</f>
+      <c r="T21">
+        <f>D24-D19</f>
         <v>17.419291199999989</v>
       </c>
-      <c r="U22">
-        <f>R25-R20</f>
+      <c r="U21">
+        <f>R24-R19</f>
         <v>-1.0224610000004759</v>
       </c>
-      <c r="V22">
+      <c r="V21">
         <f t="shared" si="0"/>
         <v>5.8697049625100507E-2</v>
       </c>
-      <c r="W22">
-        <f>D22-D18</f>
+      <c r="W21">
+        <f>D21-D17</f>
         <v>16.303840800000017</v>
       </c>
-      <c r="X22">
-        <f>R22-R18</f>
+      <c r="X21">
+        <f>R21-R17</f>
         <v>-0.57861300000058691</v>
       </c>
-      <c r="Y22">
+      <c r="Y21">
         <f t="shared" si="1"/>
         <v>3.5489367634194899E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z21">
+        <v>2994</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>-0.31637014499999999</v>
+      </c>
+      <c r="B22">
+        <v>-78.192284389999998</v>
+      </c>
+      <c r="C22">
+        <v>4310.270536</v>
+      </c>
+      <c r="D22">
+        <v>132.70966749999999</v>
+      </c>
+      <c r="E22">
+        <v>125</v>
+      </c>
+      <c r="F22">
+        <v>8</v>
+      </c>
+      <c r="G22">
+        <v>240</v>
+      </c>
+      <c r="I22" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22" t="s">
+        <v>21</v>
+      </c>
+      <c r="R22">
+        <v>4312.2958980000003</v>
+      </c>
+      <c r="Z22">
+        <v>3004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>-0.31637014499999999</v>
+        <v>-0.316351145</v>
       </c>
       <c r="B23">
-        <v>-78.192284389999998</v>
+        <v>-78.192298539999996</v>
       </c>
       <c r="C23">
-        <v>4310.270536</v>
+        <v>4310.038888</v>
       </c>
       <c r="D23">
-        <v>132.70966749999999</v>
+        <v>135.37481</v>
       </c>
       <c r="E23">
-        <v>125</v>
-      </c>
-      <c r="F23">
-        <v>8</v>
-      </c>
-      <c r="G23">
-        <v>240</v>
+        <v>128</v>
+      </c>
+      <c r="F23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" t="s">
+        <v>21</v>
       </c>
       <c r="I23" t="s">
         <v>21</v>
       </c>
-      <c r="J23" t="s">
-        <v>21</v>
+      <c r="Q23" t="s">
+        <v>26</v>
       </c>
       <c r="R23">
-        <v>4312.2958980000003</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
+        <v>4312.109375</v>
+      </c>
+      <c r="Z23">
+        <v>3186</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>-0.316351145</v>
+        <v>-0.31633714499999999</v>
       </c>
       <c r="B24">
-        <v>-78.192298539999996</v>
+        <v>-78.192308490000002</v>
       </c>
       <c r="C24">
-        <v>4310.038888</v>
+        <v>4309.8787940000002</v>
       </c>
       <c r="D24">
-        <v>135.37481</v>
+        <v>137.29117149999999</v>
       </c>
       <c r="E24">
-        <v>128</v>
-      </c>
-      <c r="F24" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" t="s">
-        <v>21</v>
-      </c>
-      <c r="H24" t="s">
-        <v>21</v>
+        <v>130</v>
+      </c>
+      <c r="F24">
+        <v>5</v>
+      </c>
+      <c r="G24">
+        <v>22</v>
       </c>
       <c r="I24" t="s">
         <v>21</v>
       </c>
-      <c r="Q24" t="s">
-        <v>26</v>
+      <c r="J24" t="s">
+        <v>21</v>
       </c>
       <c r="R24">
-        <v>4312.109375</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>-0.31633714499999999</v>
-      </c>
-      <c r="B25">
-        <v>-78.192308490000002</v>
-      </c>
-      <c r="C25">
-        <v>4309.8787940000002</v>
-      </c>
-      <c r="D25">
-        <v>137.29117149999999</v>
-      </c>
-      <c r="E25">
-        <v>130</v>
-      </c>
-      <c r="F25">
-        <v>5</v>
-      </c>
-      <c r="G25">
-        <v>22</v>
-      </c>
-      <c r="I25" t="s">
-        <v>21</v>
-      </c>
-      <c r="J25" t="s">
-        <v>21</v>
-      </c>
-      <c r="R25">
         <v>4311.8422849999997</v>
       </c>
-      <c r="S25">
+      <c r="S24">
         <v>10</v>
       </c>
-      <c r="T25">
-        <f>D27-D22</f>
+      <c r="T24">
+        <f>D26-D21</f>
         <v>18.60521559999998</v>
       </c>
-      <c r="U25">
-        <f>R27-R22</f>
+      <c r="U24">
+        <f>R26-R21</f>
         <v>-1.3740229999993971</v>
       </c>
-      <c r="V25">
+      <c r="V24">
         <f t="shared" si="0"/>
         <v>7.3851495706365192E-2</v>
       </c>
-      <c r="W25">
-        <f>D25-D20</f>
+      <c r="W24">
+        <f>D24-D19</f>
         <v>17.419291199999989</v>
       </c>
-      <c r="X25">
-        <f>R25-R20</f>
+      <c r="X24">
+        <f>R24-R19</f>
         <v>-1.0224610000004759</v>
       </c>
-      <c r="Y25">
+      <c r="Y24">
         <f t="shared" si="1"/>
         <v>5.8697049625100507E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z24">
+        <v>3208</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>-0.31630114500000001</v>
+      </c>
+      <c r="B25">
+        <v>-78.192332750000006</v>
+      </c>
+      <c r="C25">
+        <v>4309.5104529999999</v>
+      </c>
+      <c r="D25">
+        <v>142.08207519999999</v>
+      </c>
+      <c r="E25">
+        <v>135</v>
+      </c>
+      <c r="F25">
+        <v>14</v>
+      </c>
+      <c r="G25">
+        <v>35</v>
+      </c>
+      <c r="I25" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" t="s">
+        <v>21</v>
+      </c>
+      <c r="R25">
+        <v>4311.6484380000002</v>
+      </c>
+      <c r="Z25">
+        <v>3292</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>-0.31630114500000001</v>
+        <v>-0.316266145</v>
       </c>
       <c r="B26">
-        <v>-78.192332750000006</v>
+        <v>-78.192357459999997</v>
       </c>
       <c r="C26">
-        <v>4309.5104529999999</v>
+        <v>4309.1594519999999</v>
       </c>
       <c r="D26">
-        <v>142.08207519999999</v>
+        <v>146.87297889999999</v>
       </c>
       <c r="E26">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F26">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G26">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="I26" t="s">
         <v>21</v>
@@ -2260,174 +2353,183 @@
         <v>21</v>
       </c>
       <c r="R26">
-        <v>4311.6484380000002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>-0.316266145</v>
-      </c>
-      <c r="B27">
-        <v>-78.192357459999997</v>
-      </c>
-      <c r="C27">
-        <v>4309.1594519999999</v>
-      </c>
-      <c r="D27">
-        <v>146.87297889999999</v>
-      </c>
-      <c r="E27">
-        <v>140</v>
-      </c>
-      <c r="F27">
-        <v>8</v>
-      </c>
-      <c r="G27">
-        <v>105</v>
-      </c>
-      <c r="I27" t="s">
-        <v>21</v>
-      </c>
-      <c r="J27" t="s">
-        <v>21</v>
-      </c>
-      <c r="R27">
         <v>4311.1538090000004</v>
       </c>
-      <c r="S27">
+      <c r="S26">
         <v>10</v>
       </c>
-      <c r="T27">
-        <f>D31-D25</f>
+      <c r="T26">
+        <f>D30-D24</f>
         <v>18.465540000000004</v>
       </c>
-      <c r="U27">
-        <f>R31-R25</f>
+      <c r="U26">
+        <f>R30-R24</f>
         <v>-1.2680659999996351</v>
       </c>
-      <c r="V27">
+      <c r="V26">
         <f t="shared" si="0"/>
         <v>6.86720236721826E-2</v>
       </c>
-      <c r="W27">
-        <f>D27-D22</f>
+      <c r="W26">
+        <f>D26-D21</f>
         <v>18.60521559999998</v>
       </c>
-      <c r="X27">
-        <f>R27-R22</f>
+      <c r="X26">
+        <f>R26-R21</f>
         <v>-1.3740229999993971</v>
       </c>
-      <c r="Y27">
+      <c r="Y26">
         <f t="shared" si="1"/>
         <v>7.3851495706365192E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z26">
+        <v>3401</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>-0.31625814499999999</v>
+      </c>
+      <c r="B27">
+        <v>-78.19236386</v>
+      </c>
+      <c r="C27">
+        <v>4309.0721219999996</v>
+      </c>
+      <c r="D27">
+        <v>148.03007940000001</v>
+      </c>
+      <c r="H27">
+        <v>44383</v>
+      </c>
+      <c r="I27">
+        <v>0.245</v>
+      </c>
+      <c r="J27">
+        <v>1578.6861080000001</v>
+      </c>
+      <c r="K27" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" t="s">
+        <v>21</v>
+      </c>
+      <c r="M27">
+        <v>6.89</v>
+      </c>
+      <c r="N27">
+        <v>626.43939999999998</v>
+      </c>
+      <c r="O27" t="s">
+        <v>27</v>
+      </c>
+      <c r="P27" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA27">
+        <v>3.0609000000000002</v>
+      </c>
+      <c r="AB27">
+        <v>2.8124999999999999E-3</v>
+      </c>
+      <c r="AC27">
+        <v>9.3369999999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>-0.31625814499999999</v>
+        <v>-0.31624014499999997</v>
       </c>
       <c r="B28">
-        <v>-78.19236386</v>
+        <v>-78.192379950000003</v>
       </c>
       <c r="C28">
-        <v>4309.0721219999996</v>
+        <v>4308.8575780000001</v>
       </c>
       <c r="D28">
-        <v>148.03007940000001</v>
-      </c>
-      <c r="H28">
-        <v>44383</v>
-      </c>
-      <c r="I28">
-        <v>0.245</v>
-      </c>
-      <c r="J28">
-        <v>1578.6861080000001</v>
-      </c>
-      <c r="K28" t="s">
-        <v>21</v>
-      </c>
-      <c r="L28" t="s">
-        <v>21</v>
-      </c>
-      <c r="M28">
-        <v>6.89</v>
-      </c>
-      <c r="N28">
-        <v>626.43939999999998</v>
-      </c>
-      <c r="O28" t="s">
-        <v>27</v>
-      </c>
-      <c r="P28" t="s">
-        <v>28</v>
+        <v>150.70570190000001</v>
+      </c>
+      <c r="E28">
+        <v>144</v>
+      </c>
+      <c r="F28" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" t="s">
+        <v>21</v>
+      </c>
+      <c r="I28" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>29</v>
+      </c>
+      <c r="R28">
+        <v>4310.8520509999998</v>
       </c>
       <c r="Z28">
-        <v>3.0609000000000002</v>
-      </c>
-      <c r="AA28">
-        <v>2.8124999999999999E-3</v>
-      </c>
-      <c r="AB28">
-        <v>9.3369999999999997</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
+        <v>3415</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>-0.31624014499999997</v>
+        <v>-0.31623414500000002</v>
       </c>
       <c r="B29">
-        <v>-78.192379950000003</v>
+        <v>-78.192385959999996</v>
       </c>
       <c r="C29">
-        <v>4308.8575780000001</v>
+        <v>4308.7816229999999</v>
       </c>
       <c r="D29">
-        <v>150.70570190000001</v>
+        <v>151.66388269999999</v>
       </c>
       <c r="E29">
-        <v>144</v>
-      </c>
-      <c r="F29" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" t="s">
-        <v>21</v>
-      </c>
-      <c r="H29" t="s">
-        <v>21</v>
+        <v>145</v>
+      </c>
+      <c r="F29">
+        <v>30</v>
+      </c>
+      <c r="G29">
+        <v>160</v>
       </c>
       <c r="I29" t="s">
         <v>21</v>
       </c>
-      <c r="Q29" t="s">
-        <v>29</v>
+      <c r="J29" t="s">
+        <v>21</v>
       </c>
       <c r="R29">
         <v>4310.8520509999998</v>
       </c>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z29">
+        <v>3415</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>-0.31623414500000002</v>
+        <v>-0.316210145</v>
       </c>
       <c r="B30">
-        <v>-78.192385959999996</v>
+        <v>-78.19241375</v>
       </c>
       <c r="C30">
-        <v>4308.7816229999999</v>
+        <v>4308.4512219999997</v>
       </c>
       <c r="D30">
-        <v>151.66388269999999</v>
+        <v>155.75671149999999</v>
       </c>
       <c r="E30">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="F30">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G30">
-        <v>160</v>
+        <v>67</v>
       </c>
       <c r="I30" t="s">
         <v>21</v>
@@ -2436,89 +2538,95 @@
         <v>21</v>
       </c>
       <c r="R30">
-        <v>4310.8520509999998</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>-0.316210145</v>
-      </c>
-      <c r="B31">
-        <v>-78.19241375</v>
-      </c>
-      <c r="C31">
-        <v>4308.4512219999997</v>
-      </c>
-      <c r="D31">
-        <v>155.75671149999999</v>
-      </c>
-      <c r="E31">
-        <v>150</v>
-      </c>
-      <c r="F31">
+        <v>4310.5742190000001</v>
+      </c>
+      <c r="S30">
         <v>10</v>
       </c>
-      <c r="G31">
-        <v>67</v>
-      </c>
-      <c r="I31" t="s">
-        <v>21</v>
-      </c>
-      <c r="J31" t="s">
-        <v>21</v>
-      </c>
-      <c r="R31">
-        <v>4310.5742190000001</v>
-      </c>
-      <c r="S31">
-        <v>10</v>
-      </c>
-      <c r="T31">
-        <f>D33-D27</f>
+      <c r="T30">
+        <f>D32-D26</f>
         <v>17.069390300000009</v>
       </c>
-      <c r="U31">
-        <f>R33-R27</f>
+      <c r="U30">
+        <f>R32-R26</f>
         <v>-0.92285200000060286</v>
       </c>
-      <c r="V31">
+      <c r="V30">
         <f t="shared" si="0"/>
         <v>5.4064731298610141E-2</v>
       </c>
-      <c r="W31">
-        <f>D31-D25</f>
+      <c r="W30">
+        <f>D30-D24</f>
         <v>18.465540000000004</v>
       </c>
-      <c r="X31">
-        <f>R31-R25</f>
+      <c r="X30">
+        <f>R30-R24</f>
         <v>-1.2680659999996351</v>
       </c>
-      <c r="Y31">
+      <c r="Y30">
         <f t="shared" si="1"/>
         <v>6.86720236721826E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z30">
+        <v>3428</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>-0.316189145</v>
+      </c>
+      <c r="B31">
+        <v>-78.192443280000006</v>
+      </c>
+      <c r="C31">
+        <v>4308.119248</v>
+      </c>
+      <c r="D31">
+        <v>159.8495404</v>
+      </c>
+      <c r="E31">
+        <v>155</v>
+      </c>
+      <c r="F31">
+        <v>14</v>
+      </c>
+      <c r="G31">
+        <v>50</v>
+      </c>
+      <c r="I31" t="s">
+        <v>21</v>
+      </c>
+      <c r="J31" t="s">
+        <v>21</v>
+      </c>
+      <c r="R31">
+        <v>4310.3559569999998</v>
+      </c>
+      <c r="Z31">
+        <v>3444</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>-0.316189145</v>
+        <v>-0.31616914499999998</v>
       </c>
       <c r="B32">
-        <v>-78.192443280000006</v>
+        <v>-78.192475349999995</v>
       </c>
       <c r="C32">
-        <v>4308.119248</v>
+        <v>4307.761743</v>
       </c>
       <c r="D32">
-        <v>159.8495404</v>
+        <v>163.9423692</v>
       </c>
       <c r="E32">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F32">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G32">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="I32" t="s">
         <v>21</v>
@@ -2527,89 +2635,95 @@
         <v>21</v>
       </c>
       <c r="R32">
-        <v>4310.3559569999998</v>
-      </c>
-    </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>-0.31616914499999998</v>
-      </c>
-      <c r="B33">
-        <v>-78.192475349999995</v>
-      </c>
-      <c r="C33">
-        <v>4307.761743</v>
-      </c>
-      <c r="D33">
-        <v>163.9423692</v>
-      </c>
-      <c r="E33">
-        <v>160</v>
-      </c>
-      <c r="F33">
-        <v>4</v>
-      </c>
-      <c r="G33">
-        <v>20</v>
-      </c>
-      <c r="I33" t="s">
-        <v>21</v>
-      </c>
-      <c r="J33" t="s">
-        <v>21</v>
-      </c>
-      <c r="R33">
         <v>4310.2309569999998</v>
       </c>
-      <c r="S33">
+      <c r="S32">
         <v>10</v>
       </c>
-      <c r="T33">
-        <f>D35-D31</f>
+      <c r="T32">
+        <f>D34-D30</f>
         <v>16.371315400000015</v>
       </c>
-      <c r="U33">
-        <f>R35-R31</f>
+      <c r="U32">
+        <f>R34-R30</f>
         <v>-0.60253900000043359</v>
       </c>
-      <c r="V33">
+      <c r="V32">
         <f t="shared" si="0"/>
         <v>3.6804556340074727E-2</v>
       </c>
-      <c r="W33">
-        <f>D33-D27</f>
+      <c r="W32">
+        <f>D32-D26</f>
         <v>17.069390300000009</v>
       </c>
-      <c r="X33">
-        <f>R33-R27</f>
+      <c r="X32">
+        <f>R32-R26</f>
         <v>-0.92285200000060286</v>
       </c>
-      <c r="Y33">
+      <c r="Y32">
         <f t="shared" si="1"/>
         <v>5.4064731298610141E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z32">
+        <v>4344</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>-0.31615114500000002</v>
+      </c>
+      <c r="B33">
+        <v>-78.192506320000007</v>
+      </c>
+      <c r="C33">
+        <v>4307.4076729999997</v>
+      </c>
+      <c r="D33">
+        <v>168.0351981</v>
+      </c>
+      <c r="E33">
+        <v>165</v>
+      </c>
+      <c r="F33">
+        <v>13</v>
+      </c>
+      <c r="G33">
+        <v>48</v>
+      </c>
+      <c r="I33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J33" t="s">
+        <v>21</v>
+      </c>
+      <c r="R33">
+        <v>4310.1787109999996</v>
+      </c>
+      <c r="Z33">
+        <v>4368</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>-0.31615114500000002</v>
+        <v>-0.316133145</v>
       </c>
       <c r="B34">
-        <v>-78.192506320000007</v>
+        <v>-78.192537790000003</v>
       </c>
       <c r="C34">
-        <v>4307.4076729999997</v>
+        <v>4307.0290859999996</v>
       </c>
       <c r="D34">
-        <v>168.0351981</v>
+        <v>172.12802690000001</v>
       </c>
       <c r="E34">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="F34">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G34">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="I34" t="s">
         <v>21</v>
@@ -2618,259 +2732,274 @@
         <v>21</v>
       </c>
       <c r="R34">
-        <v>4310.1787109999996</v>
-      </c>
-    </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>-0.316133145</v>
-      </c>
-      <c r="B35">
-        <v>-78.192537790000003</v>
-      </c>
-      <c r="C35">
-        <v>4307.0290859999996</v>
-      </c>
-      <c r="D35">
-        <v>172.12802690000001</v>
-      </c>
-      <c r="E35">
-        <v>170</v>
-      </c>
-      <c r="F35">
+        <v>4309.9716799999997</v>
+      </c>
+      <c r="S34">
         <v>10</v>
       </c>
-      <c r="G35">
-        <v>41</v>
-      </c>
-      <c r="I35" t="s">
-        <v>21</v>
-      </c>
-      <c r="J35" t="s">
-        <v>21</v>
-      </c>
-      <c r="R35">
-        <v>4309.9716799999997</v>
-      </c>
-      <c r="S35">
-        <v>10</v>
-      </c>
-      <c r="T35">
-        <f>D39-D33</f>
+      <c r="T34">
+        <f>D38-D32</f>
         <v>16.667703999999986</v>
       </c>
-      <c r="U35">
-        <f>R39-R33</f>
+      <c r="U34">
+        <f>R38-R32</f>
         <v>-0.71875</v>
       </c>
-      <c r="V35">
+      <c r="V34">
         <f t="shared" si="0"/>
         <v>4.3122316067048021E-2</v>
       </c>
-      <c r="W35">
-        <f>D35-D31</f>
+      <c r="W34">
+        <f>D34-D30</f>
         <v>16.371315400000015</v>
       </c>
-      <c r="X35">
-        <f>R35-R31</f>
+      <c r="X34">
+        <f>R34-R30</f>
         <v>-0.60253900000043359</v>
       </c>
-      <c r="Y35">
+      <c r="Y34">
         <f t="shared" si="1"/>
         <v>3.6804556340074727E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z34">
+        <v>4394</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>-0.31612114499999999</v>
+      </c>
+      <c r="B35">
+        <v>-78.192558300000002</v>
+      </c>
+      <c r="C35">
+        <v>4306.7710399999996</v>
+      </c>
+      <c r="D35">
+        <v>174.6643894</v>
+      </c>
+      <c r="H35">
+        <v>44383</v>
+      </c>
+      <c r="I35">
+        <v>0.11</v>
+      </c>
+      <c r="J35">
+        <v>928.33809799999995</v>
+      </c>
+      <c r="K35" t="s">
+        <v>21</v>
+      </c>
+      <c r="L35" t="s">
+        <v>21</v>
+      </c>
+      <c r="M35">
+        <v>6.8840000000000003</v>
+      </c>
+      <c r="N35">
+        <v>626.27840000000003</v>
+      </c>
+      <c r="O35" t="s">
+        <v>22</v>
+      </c>
+      <c r="P35" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA35">
+        <v>3.9590999999999998</v>
+      </c>
+      <c r="AC35">
+        <v>9.1950000000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>-0.31612114499999999</v>
+        <v>-0.31611414500000001</v>
       </c>
       <c r="B36">
-        <v>-78.192558300000002</v>
+        <v>-78.192569890000001</v>
       </c>
       <c r="C36">
-        <v>4306.7710399999996</v>
+        <v>4306.6211560000002</v>
       </c>
       <c r="D36">
-        <v>174.6643894</v>
-      </c>
-      <c r="H36">
-        <v>44383</v>
-      </c>
-      <c r="I36">
-        <v>0.11</v>
-      </c>
-      <c r="J36">
-        <v>928.33809799999995</v>
-      </c>
-      <c r="K36" t="s">
-        <v>21</v>
-      </c>
-      <c r="L36" t="s">
-        <v>21</v>
-      </c>
-      <c r="M36">
-        <v>6.8840000000000003</v>
-      </c>
-      <c r="N36">
-        <v>626.27840000000003</v>
-      </c>
-      <c r="O36" t="s">
-        <v>22</v>
-      </c>
-      <c r="P36" t="s">
-        <v>23</v>
+        <v>176.22085580000001</v>
+      </c>
+      <c r="E36">
+        <v>175</v>
+      </c>
+      <c r="F36">
+        <v>26</v>
+      </c>
+      <c r="G36">
+        <v>79</v>
+      </c>
+      <c r="I36" t="s">
+        <v>21</v>
+      </c>
+      <c r="J36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R36">
+        <v>4309.7539059999999</v>
       </c>
       <c r="Z36">
-        <v>3.9590999999999998</v>
-      </c>
-      <c r="AB36">
-        <v>9.1950000000000003</v>
-      </c>
-    </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
+        <v>4399</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>-0.31611414500000001</v>
+        <v>-0.316102145</v>
       </c>
       <c r="B37">
-        <v>-78.192569890000001</v>
+        <v>-78.192588920000006</v>
       </c>
       <c r="C37">
-        <v>4306.6211560000002</v>
+        <v>4306.3687419999997</v>
       </c>
       <c r="D37">
-        <v>176.22085580000001</v>
+        <v>178.67655310000001</v>
       </c>
       <c r="E37">
-        <v>175</v>
-      </c>
-      <c r="F37">
-        <v>26</v>
-      </c>
-      <c r="G37">
-        <v>79</v>
+        <v>178</v>
+      </c>
+      <c r="F37" t="s">
+        <v>21</v>
+      </c>
+      <c r="G37" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" t="s">
+        <v>21</v>
       </c>
       <c r="I37" t="s">
         <v>21</v>
       </c>
-      <c r="J37" t="s">
-        <v>21</v>
-      </c>
       <c r="R37">
-        <v>4309.7539059999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
+        <v>4309.5122069999998</v>
+      </c>
+      <c r="Z37">
+        <v>4406</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>-0.316102145</v>
+        <v>-0.31609214499999999</v>
       </c>
       <c r="B38">
-        <v>-78.192588920000006</v>
+        <v>-78.192603800000001</v>
       </c>
       <c r="C38">
-        <v>4306.3687419999997</v>
+        <v>4306.1653399999996</v>
       </c>
       <c r="D38">
-        <v>178.67655310000001</v>
+        <v>180.61007319999999</v>
       </c>
       <c r="E38">
-        <v>178</v>
-      </c>
-      <c r="F38" t="s">
-        <v>21</v>
-      </c>
-      <c r="G38" t="s">
-        <v>21</v>
-      </c>
-      <c r="H38" t="s">
-        <v>21</v>
+        <v>180</v>
+      </c>
+      <c r="F38">
+        <v>3</v>
+      </c>
+      <c r="G38">
+        <v>71</v>
       </c>
       <c r="I38" t="s">
+        <v>21</v>
+      </c>
+      <c r="J38" t="s">
         <v>21</v>
       </c>
       <c r="R38">
         <v>4309.5122069999998</v>
       </c>
-    </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>-0.31609214499999999</v>
-      </c>
-      <c r="B39">
-        <v>-78.192603800000001</v>
-      </c>
-      <c r="C39">
-        <v>4306.1653399999996</v>
-      </c>
-      <c r="D39">
-        <v>180.61007319999999</v>
-      </c>
-      <c r="E39">
-        <v>180</v>
-      </c>
-      <c r="F39">
-        <v>3</v>
-      </c>
-      <c r="G39">
-        <v>71</v>
-      </c>
-      <c r="I39" t="s">
-        <v>21</v>
-      </c>
-      <c r="J39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R39">
-        <v>4309.5122069999998</v>
-      </c>
-      <c r="S39">
+      <c r="S38">
         <v>10</v>
       </c>
-      <c r="T39">
-        <f>D41-D35</f>
+      <c r="T38">
+        <f>D40-D34</f>
         <v>18.149646599999983</v>
       </c>
-      <c r="U39">
-        <f>R41-R35</f>
+      <c r="U38">
+        <f>R40-R34</f>
         <v>-0.88525399999980436</v>
       </c>
-      <c r="V39">
+      <c r="V38">
         <f t="shared" si="0"/>
         <v>4.8775274775862867E-2</v>
       </c>
-      <c r="W39">
-        <f>D39-D33</f>
+      <c r="W38">
+        <f>D38-D32</f>
         <v>16.667703999999986</v>
       </c>
-      <c r="X39">
-        <f>R39-R33</f>
+      <c r="X38">
+        <f>R38-R32</f>
         <v>-0.71875</v>
       </c>
-      <c r="Y39">
+      <c r="Y38">
         <f t="shared" si="1"/>
         <v>4.3122316067048021E-2</v>
       </c>
-    </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z38">
+        <v>4406</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>-0.31606614500000002</v>
+      </c>
+      <c r="B39">
+        <v>-78.192637450000007</v>
+      </c>
+      <c r="C39">
+        <v>4305.6786510000002</v>
+      </c>
+      <c r="D39">
+        <v>185.44387330000001</v>
+      </c>
+      <c r="E39">
+        <v>185</v>
+      </c>
+      <c r="F39">
+        <v>6</v>
+      </c>
+      <c r="G39">
+        <v>57</v>
+      </c>
+      <c r="I39" t="s">
+        <v>21</v>
+      </c>
+      <c r="J39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R39">
+        <v>4309.2885740000002</v>
+      </c>
+      <c r="Z39">
+        <v>4410</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>-0.31606614500000002</v>
+        <v>-0.31603414499999999</v>
       </c>
       <c r="B40">
-        <v>-78.192637450000007</v>
+        <v>-78.192667689999993</v>
       </c>
       <c r="C40">
-        <v>4305.6786510000002</v>
+        <v>4305.1703530000004</v>
       </c>
       <c r="D40">
-        <v>185.44387330000001</v>
+        <v>190.27767349999999</v>
       </c>
       <c r="E40">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="F40">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G40">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I40" t="s">
         <v>21</v>
@@ -2879,89 +3008,95 @@
         <v>21</v>
       </c>
       <c r="R40">
-        <v>4309.2885740000002</v>
-      </c>
-    </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>-0.31603414499999999</v>
-      </c>
-      <c r="B41">
-        <v>-78.192667689999993</v>
-      </c>
-      <c r="C41">
-        <v>4305.1703530000004</v>
-      </c>
-      <c r="D41">
-        <v>190.27767349999999</v>
-      </c>
-      <c r="E41">
-        <v>190</v>
-      </c>
-      <c r="F41">
-        <v>15</v>
-      </c>
-      <c r="G41">
-        <v>12</v>
-      </c>
-      <c r="I41" t="s">
-        <v>21</v>
-      </c>
-      <c r="J41" t="s">
-        <v>21</v>
-      </c>
-      <c r="R41">
         <v>4309.0864259999998</v>
       </c>
-      <c r="S41">
+      <c r="S40">
         <v>10</v>
       </c>
-      <c r="T41">
-        <f>D43-D39</f>
+      <c r="T40">
+        <f>D42-D38</f>
         <v>19.160230100000007</v>
       </c>
-      <c r="U41">
-        <f>R43-R39</f>
+      <c r="U40">
+        <f>R42-R38</f>
         <v>-1.0761720000000423</v>
       </c>
-      <c r="V41">
+      <c r="V40">
         <f t="shared" si="0"/>
         <v>5.6166966387321306E-2</v>
       </c>
-      <c r="W41">
-        <f>D41-D35</f>
+      <c r="W40">
+        <f>D40-D34</f>
         <v>18.149646599999983</v>
       </c>
-      <c r="X41">
-        <f>R41-R35</f>
+      <c r="X40">
+        <f>R40-R34</f>
         <v>-0.88525399999980436</v>
       </c>
-      <c r="Y41">
+      <c r="Y40">
         <f t="shared" si="1"/>
         <v>4.8775274775862867E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z40">
+        <v>4671</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>-0.31599614500000001</v>
+      </c>
+      <c r="B41">
+        <v>-78.192687480000004</v>
+      </c>
+      <c r="C41">
+        <v>4304.6371669999999</v>
+      </c>
+      <c r="D41">
+        <v>195.1114737</v>
+      </c>
+      <c r="E41">
+        <v>195</v>
+      </c>
+      <c r="F41">
+        <v>14</v>
+      </c>
+      <c r="G41">
+        <v>30</v>
+      </c>
+      <c r="I41" t="s">
+        <v>21</v>
+      </c>
+      <c r="J41" t="s">
+        <v>21</v>
+      </c>
+      <c r="R41">
+        <v>4308.6591799999997</v>
+      </c>
+      <c r="Z41">
+        <v>4808</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>-0.31599614500000001</v>
+        <v>-0.31595514499999999</v>
       </c>
       <c r="B42">
-        <v>-78.192687480000004</v>
+        <v>-78.192692249999993</v>
       </c>
       <c r="C42">
-        <v>4304.6371669999999</v>
+        <v>4304.1289020000004</v>
       </c>
       <c r="D42">
-        <v>195.1114737</v>
+        <v>199.77030329999999</v>
       </c>
       <c r="E42">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="F42">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G42">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="I42" t="s">
         <v>21</v>
@@ -2970,124 +3105,133 @@
         <v>21</v>
       </c>
       <c r="R42">
-        <v>4308.6591799999997</v>
-      </c>
-    </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>-0.31595514499999999</v>
-      </c>
-      <c r="B43">
-        <v>-78.192692249999993</v>
-      </c>
-      <c r="C43">
-        <v>4304.1289020000004</v>
-      </c>
-      <c r="D43">
-        <v>199.77030329999999</v>
-      </c>
-      <c r="E43">
-        <v>200</v>
-      </c>
-      <c r="F43">
-        <v>8</v>
-      </c>
-      <c r="G43">
-        <v>44</v>
-      </c>
-      <c r="I43" t="s">
-        <v>21</v>
-      </c>
-      <c r="J43" t="s">
-        <v>21</v>
-      </c>
-      <c r="R43">
         <v>4308.4360349999997</v>
       </c>
-      <c r="S43">
+      <c r="S42">
         <v>10</v>
       </c>
-      <c r="T43">
-        <f>D45-D39</f>
+      <c r="T42">
+        <f>D44-D38</f>
         <v>25.278820400000001</v>
       </c>
-      <c r="U43">
-        <f>R45-R39</f>
+      <c r="U42">
+        <f>R44-R38</f>
         <v>-1.618652000000111</v>
       </c>
-      <c r="V43">
+      <c r="V42">
         <f t="shared" si="0"/>
         <v>6.4031943515849774E-2</v>
       </c>
-      <c r="W43">
-        <f>D43-D39</f>
+      <c r="W42">
+        <f>D42-D38</f>
         <v>19.160230100000007</v>
       </c>
-      <c r="X43">
-        <f>R43-R39</f>
+      <c r="X42">
+        <f>R42-R38</f>
         <v>-1.0761720000000423</v>
       </c>
-      <c r="Y43">
+      <c r="Y42">
         <f t="shared" si="1"/>
         <v>5.6166966387321306E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z42">
+        <v>4816</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>-0.315938145</v>
+      </c>
+      <c r="B43">
+        <v>-78.192690470000002</v>
+      </c>
+      <c r="C43">
+        <v>4303.9341109999996</v>
+      </c>
+      <c r="D43">
+        <v>201.6338351</v>
+      </c>
+      <c r="E43">
+        <v>202</v>
+      </c>
+      <c r="F43" t="s">
+        <v>21</v>
+      </c>
+      <c r="G43" t="s">
+        <v>21</v>
+      </c>
+      <c r="H43" t="s">
+        <v>21</v>
+      </c>
+      <c r="I43" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>24</v>
+      </c>
+      <c r="R43">
+        <v>4308.1821289999998</v>
+      </c>
+      <c r="Z43">
+        <v>4825</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>-0.315938145</v>
+        <v>-0.31590114499999999</v>
       </c>
       <c r="B44">
-        <v>-78.192690470000002</v>
+        <v>-78.192682090000005</v>
       </c>
       <c r="C44">
-        <v>4303.9341109999996</v>
+        <v>4303.5578770000002</v>
       </c>
       <c r="D44">
-        <v>201.6338351</v>
+        <v>205.88889359999999</v>
       </c>
       <c r="E44">
-        <v>202</v>
-      </c>
-      <c r="F44" t="s">
-        <v>21</v>
-      </c>
-      <c r="G44" t="s">
-        <v>21</v>
-      </c>
-      <c r="H44" t="s">
-        <v>21</v>
+        <v>206</v>
+      </c>
+      <c r="F44">
+        <v>29.5</v>
+      </c>
+      <c r="G44">
+        <v>35</v>
       </c>
       <c r="I44" t="s">
         <v>21</v>
       </c>
-      <c r="Q44" t="s">
-        <v>24</v>
+      <c r="J44" t="s">
+        <v>21</v>
       </c>
       <c r="R44">
-        <v>4308.1821289999998</v>
-      </c>
-    </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
+        <v>4307.8935549999997</v>
+      </c>
+      <c r="Z44">
+        <v>4828</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>-0.31590114499999999</v>
+        <v>-0.31586414499999999</v>
       </c>
       <c r="B45">
-        <v>-78.192682090000005</v>
+        <v>-78.192671630000007</v>
       </c>
       <c r="C45">
-        <v>4303.5578770000002</v>
+        <v>4303.1521869999997</v>
       </c>
       <c r="D45">
-        <v>205.88889359999999</v>
+        <v>210.14395200000001</v>
       </c>
       <c r="E45">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F45">
-        <v>29.5</v>
+        <v>18</v>
       </c>
       <c r="G45">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="I45" t="s">
         <v>21</v>
@@ -3096,262 +3240,277 @@
         <v>21</v>
       </c>
       <c r="R45">
-        <v>4307.8935549999997</v>
-      </c>
-    </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>-0.31586414499999999</v>
-      </c>
-      <c r="B46">
-        <v>-78.192671630000007</v>
-      </c>
-      <c r="C46">
-        <v>4303.1521869999997</v>
-      </c>
-      <c r="D46">
-        <v>210.14395200000001</v>
-      </c>
-      <c r="E46">
-        <v>210</v>
-      </c>
-      <c r="F46">
-        <v>18</v>
-      </c>
-      <c r="G46">
-        <v>52</v>
-      </c>
-      <c r="I46" t="s">
-        <v>21</v>
-      </c>
-      <c r="J46" t="s">
-        <v>21</v>
-      </c>
-      <c r="R46">
         <v>4307.578125</v>
       </c>
-      <c r="S46">
+      <c r="S45">
         <v>10</v>
       </c>
-      <c r="T46">
-        <f>D49-D43</f>
+      <c r="T45">
+        <f>D48-D42</f>
         <v>20.956206100000003</v>
       </c>
-      <c r="U46">
-        <f>R49-R43</f>
+      <c r="U45">
+        <f>R48-R42</f>
         <v>-2.274902000000111</v>
       </c>
-      <c r="V46">
+      <c r="V45">
         <f t="shared" si="0"/>
         <v>0.1085550499524869</v>
       </c>
-      <c r="W46">
-        <f>D46-D41</f>
+      <c r="W45">
+        <f>D45-D40</f>
         <v>19.866278500000021</v>
       </c>
-      <c r="X46">
-        <f>R46-R41</f>
+      <c r="X45">
+        <f>R45-R40</f>
         <v>-1.5083009999998467</v>
       </c>
-      <c r="Y46">
+      <c r="Y45">
         <f t="shared" si="1"/>
         <v>7.5922674697218459E-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z45">
+        <v>4834</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>-0.31581714500000002</v>
+      </c>
+      <c r="B46">
+        <v>-78.192662290000001</v>
+      </c>
+      <c r="C46">
+        <v>4302.622273</v>
+      </c>
+      <c r="D46">
+        <v>215.46277499999999</v>
+      </c>
+      <c r="E46">
+        <v>215</v>
+      </c>
+      <c r="F46">
+        <v>29</v>
+      </c>
+      <c r="G46">
+        <v>26</v>
+      </c>
+      <c r="I46" t="s">
+        <v>21</v>
+      </c>
+      <c r="J46" t="s">
+        <v>21</v>
+      </c>
+      <c r="R46">
+        <v>4306.8857420000004</v>
+      </c>
+      <c r="Z46">
+        <v>4843</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>-0.31581714500000002</v>
+        <v>-0.31577914499999998</v>
       </c>
       <c r="B47">
-        <v>-78.192662290000001</v>
+        <v>-78.192662170000006</v>
       </c>
       <c r="C47">
-        <v>4302.622273</v>
+        <v>4302.32503</v>
       </c>
       <c r="D47">
-        <v>215.46277499999999</v>
+        <v>219.71783350000001</v>
       </c>
       <c r="E47">
-        <v>215</v>
-      </c>
-      <c r="F47">
-        <v>29</v>
-      </c>
-      <c r="G47">
-        <v>26</v>
+        <v>219</v>
+      </c>
+      <c r="F47" t="s">
+        <v>21</v>
+      </c>
+      <c r="G47" t="s">
+        <v>21</v>
+      </c>
+      <c r="H47" t="s">
+        <v>21</v>
       </c>
       <c r="I47" t="s">
         <v>21</v>
       </c>
-      <c r="J47" t="s">
-        <v>21</v>
+      <c r="Q47" t="s">
+        <v>30</v>
       </c>
       <c r="R47">
-        <v>4306.8857420000004</v>
-      </c>
-    </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
+        <v>4306.1611329999996</v>
+      </c>
+      <c r="Z47">
+        <v>4858</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>-0.31577914499999998</v>
+        <v>-0.315770145</v>
       </c>
       <c r="B48">
-        <v>-78.192662170000006</v>
+        <v>-78.192663370000005</v>
       </c>
       <c r="C48">
-        <v>4302.32503</v>
+        <v>4302.2710889999998</v>
       </c>
       <c r="D48">
-        <v>219.71783350000001</v>
+        <v>220.7265094</v>
       </c>
       <c r="E48">
-        <v>219</v>
-      </c>
-      <c r="F48" t="s">
-        <v>21</v>
-      </c>
-      <c r="G48" t="s">
-        <v>21</v>
-      </c>
-      <c r="H48" t="s">
-        <v>21</v>
+        <v>220</v>
+      </c>
+      <c r="F48">
+        <v>12</v>
+      </c>
+      <c r="G48">
+        <v>49</v>
       </c>
       <c r="I48" t="s">
         <v>21</v>
       </c>
-      <c r="Q48" t="s">
-        <v>30</v>
+      <c r="J48" t="s">
+        <v>21</v>
       </c>
       <c r="R48">
         <v>4306.1611329999996</v>
       </c>
-    </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>-0.315770145</v>
-      </c>
-      <c r="B49">
-        <v>-78.192663370000005</v>
-      </c>
-      <c r="C49">
-        <v>4302.2710889999998</v>
-      </c>
-      <c r="D49">
-        <v>220.7265094</v>
-      </c>
-      <c r="E49">
-        <v>220</v>
-      </c>
-      <c r="F49">
-        <v>12</v>
-      </c>
-      <c r="G49">
-        <v>49</v>
-      </c>
-      <c r="I49" t="s">
-        <v>21</v>
-      </c>
-      <c r="J49" t="s">
-        <v>21</v>
-      </c>
-      <c r="R49">
-        <v>4306.1611329999996</v>
-      </c>
-      <c r="S49">
+      <c r="S48">
         <v>10</v>
       </c>
-      <c r="T49">
-        <f>D52-D46</f>
+      <c r="T48">
+        <f>D51-D45</f>
         <v>20.669316999999978</v>
       </c>
-      <c r="U49">
-        <f>R52-R46</f>
+      <c r="U48">
+        <f>R51-R45</f>
         <v>-2.5380859999995664</v>
       </c>
-      <c r="V49">
+      <c r="V48">
         <f t="shared" si="0"/>
         <v>0.12279486545199191</v>
       </c>
-      <c r="W49">
-        <f>D49-D43</f>
+      <c r="W48">
+        <f>D48-D42</f>
         <v>20.956206100000003</v>
       </c>
-      <c r="X49">
-        <f>R49-R43</f>
+      <c r="X48">
+        <f>R48-R42</f>
         <v>-2.274902000000111</v>
       </c>
-      <c r="Y49">
+      <c r="Y48">
         <f t="shared" si="1"/>
         <v>0.1085550499524869</v>
       </c>
-    </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z48">
+        <v>4858</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>-0.31576114500000002</v>
+      </c>
+      <c r="B49">
+        <v>-78.192665070000004</v>
+      </c>
+      <c r="C49">
+        <v>4302.2221929999996</v>
+      </c>
+      <c r="D49">
+        <v>221.74853680000001</v>
+      </c>
+      <c r="H49">
+        <v>44383</v>
+      </c>
+      <c r="I49">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="J49">
+        <v>1272.841318</v>
+      </c>
+      <c r="K49" t="s">
+        <v>21</v>
+      </c>
+      <c r="L49" t="s">
+        <v>21</v>
+      </c>
+      <c r="M49">
+        <v>6.8789999999999996</v>
+      </c>
+      <c r="N49">
+        <v>626.33339999999998</v>
+      </c>
+      <c r="O49" t="s">
+        <v>27</v>
+      </c>
+      <c r="P49" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA49">
+        <v>4.3722000000000003</v>
+      </c>
+      <c r="AC49">
+        <v>9.0615000000000006</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>-0.31576114500000002</v>
+        <v>-0.31572714499999999</v>
       </c>
       <c r="B50">
-        <v>-78.192665070000004</v>
+        <v>-78.192676000000006</v>
       </c>
       <c r="C50">
-        <v>4302.2221929999996</v>
+        <v>4302.07636</v>
       </c>
       <c r="D50">
-        <v>221.74853680000001</v>
-      </c>
-      <c r="H50">
-        <v>44383</v>
-      </c>
-      <c r="I50">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="J50">
-        <v>1272.841318</v>
-      </c>
-      <c r="K50" t="s">
-        <v>21</v>
-      </c>
-      <c r="L50" t="s">
-        <v>21</v>
-      </c>
-      <c r="M50">
-        <v>6.8789999999999996</v>
-      </c>
-      <c r="N50">
-        <v>626.33339999999998</v>
-      </c>
-      <c r="O50" t="s">
-        <v>27</v>
-      </c>
-      <c r="P50" t="s">
-        <v>28</v>
+        <v>225.76988919999999</v>
+      </c>
+      <c r="E50">
+        <v>225</v>
+      </c>
+      <c r="F50">
+        <v>17</v>
+      </c>
+      <c r="G50">
+        <v>42</v>
+      </c>
+      <c r="I50" t="s">
+        <v>21</v>
+      </c>
+      <c r="J50" t="s">
+        <v>21</v>
+      </c>
+      <c r="R50">
+        <v>4305.3188479999999</v>
       </c>
       <c r="Z50">
-        <v>4.3722000000000003</v>
-      </c>
-      <c r="AB50">
-        <v>9.0615000000000006</v>
-      </c>
-    </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
+        <v>4930</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>-0.31572714499999999</v>
+        <v>-0.315687145</v>
       </c>
       <c r="B51">
-        <v>-78.192676000000006</v>
+        <v>-78.192697179999996</v>
       </c>
       <c r="C51">
-        <v>4302.07636</v>
+        <v>4301.9640900000004</v>
       </c>
       <c r="D51">
-        <v>225.76988919999999</v>
+        <v>230.81326899999999</v>
       </c>
       <c r="E51">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="F51">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G51">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="I51" t="s">
         <v>21</v>
@@ -3360,89 +3519,95 @@
         <v>21</v>
       </c>
       <c r="R51">
-        <v>4305.3188479999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>-0.315687145</v>
-      </c>
-      <c r="B52">
-        <v>-78.192697179999996</v>
-      </c>
-      <c r="C52">
-        <v>4301.9640900000004</v>
-      </c>
-      <c r="D52">
-        <v>230.81326899999999</v>
-      </c>
-      <c r="E52">
-        <v>230</v>
-      </c>
-      <c r="F52">
-        <v>23</v>
-      </c>
-      <c r="G52">
-        <v>15</v>
-      </c>
-      <c r="I52" t="s">
-        <v>21</v>
-      </c>
-      <c r="J52" t="s">
-        <v>21</v>
-      </c>
-      <c r="R52">
         <v>4305.0400390000004</v>
       </c>
-      <c r="S52">
+      <c r="S51">
         <v>10</v>
       </c>
-      <c r="T52">
-        <f>D54-D49</f>
+      <c r="T51">
+        <f>D53-D48</f>
         <v>20.173519099999993</v>
       </c>
-      <c r="U52">
-        <f>R54-R49</f>
+      <c r="U51">
+        <f>R53-R48</f>
         <v>-1.4257809999999154</v>
       </c>
-      <c r="V52">
+      <c r="V51">
         <f t="shared" si="0"/>
         <v>7.0675869338033132E-2</v>
       </c>
-      <c r="W52">
-        <f>D52-D46</f>
+      <c r="W51">
+        <f>D51-D45</f>
         <v>20.669316999999978</v>
       </c>
-      <c r="X52">
-        <f>R52-R46</f>
+      <c r="X51">
+        <f>R51-R45</f>
         <v>-2.5380859999995664</v>
       </c>
-      <c r="Y52">
+      <c r="Y51">
         <f t="shared" si="1"/>
         <v>0.12279486545199191</v>
       </c>
-    </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z51">
+        <v>4940</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>-0.31564914500000002</v>
+      </c>
+      <c r="B52">
+        <v>-78.192723419999993</v>
+      </c>
+      <c r="C52">
+        <v>4301.8834409999999</v>
+      </c>
+      <c r="D52">
+        <v>235.85664869999999</v>
+      </c>
+      <c r="E52">
+        <v>235</v>
+      </c>
+      <c r="F52">
+        <v>24</v>
+      </c>
+      <c r="G52">
+        <v>53</v>
+      </c>
+      <c r="I52" t="s">
+        <v>21</v>
+      </c>
+      <c r="J52" t="s">
+        <v>21</v>
+      </c>
+      <c r="R52">
+        <v>4304.7587890000004</v>
+      </c>
+      <c r="Z52">
+        <v>5202</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>-0.31564914500000002</v>
+        <v>-0.31561314499999998</v>
       </c>
       <c r="B53">
-        <v>-78.192723419999993</v>
+        <v>-78.192750889999999</v>
       </c>
       <c r="C53">
-        <v>4301.8834409999999</v>
+        <v>4301.8334029999996</v>
       </c>
       <c r="D53">
-        <v>235.85664869999999</v>
+        <v>240.90002849999999</v>
       </c>
       <c r="E53">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="F53">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G53">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="I53" t="s">
         <v>21</v>
@@ -3451,171 +3616,180 @@
         <v>21</v>
       </c>
       <c r="R53">
-        <v>4304.7587890000004</v>
-      </c>
-    </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
+        <v>4304.7353519999997</v>
+      </c>
+      <c r="S53">
+        <v>10</v>
+      </c>
+      <c r="T53">
+        <f>D57-D51</f>
+        <v>21.036458699999997</v>
+      </c>
+      <c r="U53">
+        <f>R57-R51</f>
+        <v>-0.30468700000074023</v>
+      </c>
+      <c r="V53">
+        <f t="shared" si="0"/>
+        <v>1.4483759093955309E-2</v>
+      </c>
+      <c r="W53">
+        <f>D53-D48</f>
+        <v>20.173519099999993</v>
+      </c>
+      <c r="X53">
+        <f>R53-R48</f>
+        <v>-1.4257809999999154</v>
+      </c>
+      <c r="Y53">
+        <f t="shared" si="1"/>
+        <v>7.0675869338033132E-2</v>
+      </c>
+      <c r="Z53">
+        <v>5279</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>-0.31561314499999998</v>
+        <v>-0.31559914500000003</v>
       </c>
       <c r="B54">
-        <v>-78.192750889999999</v>
+        <v>-78.192761579999996</v>
       </c>
       <c r="C54">
-        <v>4301.8334029999996</v>
+        <v>4301.8369670000002</v>
       </c>
       <c r="D54">
-        <v>240.90002849999999</v>
+        <v>242.91738040000001</v>
       </c>
       <c r="E54">
-        <v>240</v>
-      </c>
-      <c r="F54">
-        <v>19</v>
-      </c>
-      <c r="G54">
-        <v>42</v>
+        <v>242</v>
+      </c>
+      <c r="F54" t="s">
+        <v>21</v>
+      </c>
+      <c r="G54" t="s">
+        <v>21</v>
+      </c>
+      <c r="H54" t="s">
+        <v>21</v>
       </c>
       <c r="I54" t="s">
         <v>21</v>
       </c>
-      <c r="J54" t="s">
-        <v>21</v>
+      <c r="Q54" t="s">
+        <v>30</v>
       </c>
       <c r="R54">
         <v>4304.7353519999997</v>
       </c>
-      <c r="S54">
-        <v>10</v>
-      </c>
-      <c r="T54">
-        <f>D58-D52</f>
-        <v>21.036458699999997</v>
-      </c>
-      <c r="U54">
-        <f>R58-R52</f>
-        <v>-0.30468700000074023</v>
-      </c>
-      <c r="V54">
-        <f t="shared" si="0"/>
-        <v>1.4483759093955309E-2</v>
-      </c>
-      <c r="W54">
-        <f>D54-D49</f>
-        <v>20.173519099999993</v>
-      </c>
-      <c r="X54">
-        <f>R54-R49</f>
-        <v>-1.4257809999999154</v>
-      </c>
-      <c r="Y54">
-        <f t="shared" si="1"/>
-        <v>7.0675869338033132E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z54">
+        <v>5279</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>-0.31559914500000003</v>
+        <v>-0.31559014499999999</v>
       </c>
       <c r="B55">
-        <v>-78.192761579999996</v>
+        <v>-78.192768319999999</v>
       </c>
       <c r="C55">
-        <v>4301.8369670000002</v>
+        <v>4301.8370240000004</v>
       </c>
       <c r="D55">
-        <v>242.91738040000001</v>
-      </c>
-      <c r="E55">
-        <v>242</v>
-      </c>
-      <c r="F55" t="s">
-        <v>21</v>
-      </c>
-      <c r="G55" t="s">
-        <v>21</v>
-      </c>
-      <c r="H55" t="s">
-        <v>21</v>
-      </c>
-      <c r="I55" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>30</v>
-      </c>
-      <c r="R55">
+        <v>244.16927999999999</v>
+      </c>
+      <c r="H55">
+        <v>44383</v>
+      </c>
+      <c r="I55">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="J55">
+        <v>1209.4632099999999</v>
+      </c>
+      <c r="K55" t="s">
+        <v>21</v>
+      </c>
+      <c r="L55" t="s">
+        <v>21</v>
+      </c>
+      <c r="M55">
+        <v>6.8789999999999996</v>
+      </c>
+      <c r="N55">
+        <v>626.33339999999998</v>
+      </c>
+      <c r="O55" t="s">
+        <v>22</v>
+      </c>
+      <c r="P55" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA55">
+        <v>4.8293999999999997</v>
+      </c>
+      <c r="AC55">
+        <v>9.0615000000000006</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>-0.315571145</v>
+      </c>
+      <c r="B56">
+        <v>-78.19278199</v>
+      </c>
+      <c r="C56">
+        <v>4301.8145160000004</v>
+      </c>
+      <c r="D56">
+        <v>246.7750489</v>
+      </c>
+      <c r="E56">
+        <v>245</v>
+      </c>
+      <c r="F56">
+        <v>169</v>
+      </c>
+      <c r="G56">
+        <v>41</v>
+      </c>
+      <c r="I56" t="s">
+        <v>21</v>
+      </c>
+      <c r="J56" t="s">
+        <v>21</v>
+      </c>
+      <c r="R56">
         <v>4304.7353519999997</v>
       </c>
-    </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>-0.31559014499999999</v>
-      </c>
-      <c r="B56">
-        <v>-78.192768319999999</v>
-      </c>
-      <c r="C56">
-        <v>4301.8370240000004</v>
-      </c>
-      <c r="D56">
-        <v>244.16927999999999</v>
-      </c>
-      <c r="H56">
-        <v>44383</v>
-      </c>
-      <c r="I56">
-        <v>0.28499999999999998</v>
-      </c>
-      <c r="J56">
-        <v>1209.4632099999999</v>
-      </c>
-      <c r="K56" t="s">
-        <v>21</v>
-      </c>
-      <c r="L56" t="s">
-        <v>21</v>
-      </c>
-      <c r="M56">
-        <v>6.8789999999999996</v>
-      </c>
-      <c r="N56">
-        <v>626.33339999999998</v>
-      </c>
-      <c r="O56" t="s">
-        <v>22</v>
-      </c>
-      <c r="P56" t="s">
-        <v>23</v>
-      </c>
       <c r="Z56">
-        <v>4.8293999999999997</v>
-      </c>
-      <c r="AB56">
-        <v>9.0615000000000006</v>
-      </c>
-    </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.2">
+        <v>5366</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>-0.315571145</v>
+        <v>-0.31553214499999999</v>
       </c>
       <c r="B57">
-        <v>-78.19278199</v>
+        <v>-78.192806279999999</v>
       </c>
       <c r="C57">
-        <v>4301.8145160000004</v>
+        <v>4301.802713</v>
       </c>
       <c r="D57">
-        <v>246.7750489</v>
+        <v>251.84972769999999</v>
       </c>
       <c r="E57">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="F57">
-        <v>169</v>
+        <v>31</v>
       </c>
       <c r="G57">
-        <v>41</v>
+        <v>158</v>
       </c>
       <c r="I57" t="s">
         <v>21</v>
@@ -3626,28 +3800,58 @@
       <c r="R57">
         <v>4304.7353519999997</v>
       </c>
-    </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="S57">
+        <v>10</v>
+      </c>
+      <c r="T57">
+        <f>D60-D53</f>
+        <v>21.099056700000034</v>
+      </c>
+      <c r="U57">
+        <f>R60-R53</f>
+        <v>0</v>
+      </c>
+      <c r="V57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W57">
+        <f>D57-D51</f>
+        <v>21.036458699999997</v>
+      </c>
+      <c r="X57">
+        <f>R57-R51</f>
+        <v>-0.30468700000074023</v>
+      </c>
+      <c r="Y57">
+        <f t="shared" si="1"/>
+        <v>1.4483759093955309E-2</v>
+      </c>
+      <c r="Z57">
+        <v>5636</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>-0.31553214499999999</v>
+        <v>-0.31549114499999997</v>
       </c>
       <c r="B58">
-        <v>-78.192806279999999</v>
+        <v>-78.192824189999996</v>
       </c>
       <c r="C58">
-        <v>4301.802713</v>
+        <v>4301.760698</v>
       </c>
       <c r="D58">
-        <v>251.84972769999999</v>
+        <v>256.92440640000001</v>
       </c>
       <c r="E58">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="F58">
         <v>31</v>
       </c>
       <c r="G58">
-        <v>158</v>
+        <v>49</v>
       </c>
       <c r="I58" t="s">
         <v>21</v>
@@ -3658,295 +3862,313 @@
       <c r="R58">
         <v>4304.7353519999997</v>
       </c>
-      <c r="S58">
-        <v>10</v>
-      </c>
-      <c r="T58">
-        <f>D61-D54</f>
-        <v>21.099056700000034</v>
-      </c>
-      <c r="U58">
-        <f>R61-R54</f>
-        <v>0</v>
-      </c>
-      <c r="V58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W58">
-        <f>D58-D52</f>
-        <v>21.036458699999997</v>
-      </c>
-      <c r="X58">
-        <f>R58-R52</f>
-        <v>-0.30468700000074023</v>
-      </c>
-      <c r="Y58">
-        <f t="shared" si="1"/>
-        <v>1.4483759093955309E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z58">
+        <v>5704</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>-0.31549114499999997</v>
+        <v>-0.31548214499999999</v>
       </c>
       <c r="B59">
-        <v>-78.192824189999996</v>
+        <v>-78.192826960000005</v>
       </c>
       <c r="C59">
-        <v>4301.760698</v>
+        <v>4301.7594049999998</v>
       </c>
       <c r="D59">
-        <v>256.92440640000001</v>
+        <v>257.9393422</v>
       </c>
       <c r="E59">
-        <v>255</v>
-      </c>
-      <c r="F59">
+        <v>256</v>
+      </c>
+      <c r="F59" t="s">
+        <v>21</v>
+      </c>
+      <c r="G59" t="s">
+        <v>21</v>
+      </c>
+      <c r="H59" t="s">
+        <v>21</v>
+      </c>
+      <c r="I59" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q59" t="s">
         <v>31</v>
-      </c>
-      <c r="G59">
-        <v>49</v>
-      </c>
-      <c r="I59" t="s">
-        <v>21</v>
-      </c>
-      <c r="J59" t="s">
-        <v>21</v>
       </c>
       <c r="R59">
         <v>4304.7353519999997</v>
       </c>
-    </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z59">
+        <v>5777</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>-0.31548214499999999</v>
+        <v>-0.31544614500000001</v>
       </c>
       <c r="B60">
-        <v>-78.192826960000005</v>
+        <v>-78.192834070000004</v>
       </c>
       <c r="C60">
-        <v>4301.7594049999998</v>
+        <v>4301.6909759999999</v>
       </c>
       <c r="D60">
-        <v>257.9393422</v>
+        <v>261.99908520000002</v>
       </c>
       <c r="E60">
-        <v>256</v>
-      </c>
-      <c r="F60" t="s">
-        <v>21</v>
-      </c>
-      <c r="G60" t="s">
-        <v>21</v>
-      </c>
-      <c r="H60" t="s">
-        <v>21</v>
+        <v>260</v>
+      </c>
+      <c r="F60">
+        <v>9</v>
+      </c>
+      <c r="G60">
+        <v>32</v>
       </c>
       <c r="I60" t="s">
         <v>21</v>
       </c>
-      <c r="Q60" t="s">
-        <v>31</v>
+      <c r="J60" t="s">
+        <v>21</v>
       </c>
       <c r="R60">
         <v>4304.7353519999997</v>
       </c>
-    </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="S60">
+        <v>10</v>
+      </c>
+      <c r="T60">
+        <f>D64-D57</f>
+        <v>20.149497000000025</v>
+      </c>
+      <c r="U60">
+        <f>R64-R57</f>
+        <v>-2.1972999999888998E-2</v>
+      </c>
+      <c r="V60">
+        <f t="shared" si="0"/>
+        <v>1.0904986858922073E-3</v>
+      </c>
+      <c r="W60">
+        <f>D60-D53</f>
+        <v>21.099056700000034</v>
+      </c>
+      <c r="X60">
+        <f>R60-R53</f>
+        <v>0</v>
+      </c>
+      <c r="Y60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>5792</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>-0.31544614500000001</v>
+        <v>-0.31542814499999999</v>
       </c>
       <c r="B61">
-        <v>-78.192834070000004</v>
+        <v>-78.192835709999997</v>
       </c>
       <c r="C61">
-        <v>4301.6909759999999</v>
+        <v>4301.6028839999999</v>
       </c>
       <c r="D61">
-        <v>261.99908520000002</v>
+        <v>264.02895669999998</v>
       </c>
       <c r="E61">
-        <v>260</v>
-      </c>
-      <c r="F61">
-        <v>9</v>
-      </c>
-      <c r="G61">
+        <v>262</v>
+      </c>
+      <c r="F61" t="s">
+        <v>21</v>
+      </c>
+      <c r="G61" t="s">
+        <v>21</v>
+      </c>
+      <c r="H61" t="s">
+        <v>21</v>
+      </c>
+      <c r="I61" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q61" t="s">
         <v>32</v>
-      </c>
-      <c r="I61" t="s">
-        <v>21</v>
-      </c>
-      <c r="J61" t="s">
-        <v>21</v>
       </c>
       <c r="R61">
         <v>4304.7353519999997</v>
       </c>
-      <c r="S61">
+      <c r="Z61">
+        <v>5792</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>-0.31541214499999998</v>
+      </c>
+      <c r="B62">
+        <v>-78.192836569999997</v>
+      </c>
+      <c r="C62">
+        <v>4301.5040749999998</v>
+      </c>
+      <c r="D62">
+        <v>265.81265059999998</v>
+      </c>
+      <c r="H62">
+        <v>44383</v>
+      </c>
+      <c r="I62">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="J62">
+        <v>1311.0624310000001</v>
+      </c>
+      <c r="K62" t="s">
+        <v>21</v>
+      </c>
+      <c r="L62" t="s">
+        <v>21</v>
+      </c>
+      <c r="M62">
+        <v>6.8760000000000003</v>
+      </c>
+      <c r="N62">
+        <v>626.31539999999995</v>
+      </c>
+      <c r="O62" t="s">
+        <v>27</v>
+      </c>
+      <c r="P62" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA62">
+        <v>5.2577999999999996</v>
+      </c>
+      <c r="AC62">
+        <v>8.9602500000000003</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>-0.31540114499999999</v>
+      </c>
+      <c r="B63">
+        <v>-78.192837089999998</v>
+      </c>
+      <c r="C63">
+        <v>4301.4259160000001</v>
+      </c>
+      <c r="D63">
+        <v>267.01780719999999</v>
+      </c>
+      <c r="E63">
+        <v>265</v>
+      </c>
+      <c r="F63">
+        <v>17</v>
+      </c>
+      <c r="G63">
+        <v>12</v>
+      </c>
+      <c r="I63" t="s">
+        <v>21</v>
+      </c>
+      <c r="J63" t="s">
+        <v>21</v>
+      </c>
+      <c r="R63">
+        <v>4304.7353519999997</v>
+      </c>
+      <c r="Z63">
+        <v>5842</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>-0.31535714500000001</v>
+      </c>
+      <c r="B64">
+        <v>-78.192844030000003</v>
+      </c>
+      <c r="C64">
+        <v>4301.0367880000003</v>
+      </c>
+      <c r="D64">
+        <v>271.99922470000001</v>
+      </c>
+      <c r="E64">
+        <v>270</v>
+      </c>
+      <c r="F64">
+        <v>7</v>
+      </c>
+      <c r="G64">
+        <v>63</v>
+      </c>
+      <c r="I64" t="s">
+        <v>21</v>
+      </c>
+      <c r="J64" t="s">
+        <v>21</v>
+      </c>
+      <c r="R64">
+        <v>4304.7133789999998</v>
+      </c>
+      <c r="S64">
         <v>10</v>
       </c>
-      <c r="T61">
-        <f>D65-D58</f>
+      <c r="T64">
+        <f>D66-D60</f>
+        <v>19.962974499999973</v>
+      </c>
+      <c r="U64">
+        <f>R66-R60</f>
+        <v>-0.68017599999984668</v>
+      </c>
+      <c r="V64">
+        <f t="shared" si="0"/>
+        <v>3.4071876412998851E-2</v>
+      </c>
+      <c r="W64">
+        <f>D64-D57</f>
         <v>20.149497000000025</v>
       </c>
-      <c r="U61">
-        <f>R65-R58</f>
+      <c r="X64">
+        <f>R64-R57</f>
         <v>-2.1972999999888998E-2</v>
       </c>
-      <c r="V61">
-        <f t="shared" si="0"/>
+      <c r="Y64">
+        <f t="shared" si="1"/>
         <v>1.0904986858922073E-3</v>
       </c>
-      <c r="W61">
-        <f>D61-D54</f>
-        <v>21.099056700000034</v>
-      </c>
-      <c r="X61">
-        <f>R61-R54</f>
-        <v>0</v>
-      </c>
-      <c r="Y61">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>-0.31542814499999999</v>
-      </c>
-      <c r="B62">
-        <v>-78.192835709999997</v>
-      </c>
-      <c r="C62">
-        <v>4301.6028839999999</v>
-      </c>
-      <c r="D62">
-        <v>264.02895669999998</v>
-      </c>
-      <c r="E62">
-        <v>262</v>
-      </c>
-      <c r="F62" t="s">
-        <v>21</v>
-      </c>
-      <c r="G62" t="s">
-        <v>21</v>
-      </c>
-      <c r="H62" t="s">
-        <v>21</v>
-      </c>
-      <c r="I62" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>32</v>
-      </c>
-      <c r="R62">
-        <v>4304.7353519999997</v>
-      </c>
-    </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>-0.31541214499999998</v>
-      </c>
-      <c r="B63">
-        <v>-78.192836569999997</v>
-      </c>
-      <c r="C63">
-        <v>4301.5040749999998</v>
-      </c>
-      <c r="D63">
-        <v>265.81265059999998</v>
-      </c>
-      <c r="H63">
-        <v>44383</v>
-      </c>
-      <c r="I63">
-        <v>0.28499999999999998</v>
-      </c>
-      <c r="J63">
-        <v>1311.0624310000001</v>
-      </c>
-      <c r="K63" t="s">
-        <v>21</v>
-      </c>
-      <c r="L63" t="s">
-        <v>21</v>
-      </c>
-      <c r="M63">
-        <v>6.8760000000000003</v>
-      </c>
-      <c r="N63">
-        <v>626.31539999999995</v>
-      </c>
-      <c r="O63" t="s">
-        <v>27</v>
-      </c>
-      <c r="P63" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z63">
-        <v>5.2577999999999996</v>
-      </c>
-      <c r="AB63">
-        <v>8.9602500000000003</v>
-      </c>
-    </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>-0.31540114499999999</v>
-      </c>
-      <c r="B64">
-        <v>-78.192837089999998</v>
-      </c>
-      <c r="C64">
-        <v>4301.4259160000001</v>
-      </c>
-      <c r="D64">
-        <v>267.01780719999999</v>
-      </c>
-      <c r="E64">
-        <v>265</v>
-      </c>
-      <c r="F64">
-        <v>17</v>
-      </c>
-      <c r="G64">
-        <v>12</v>
-      </c>
-      <c r="I64" t="s">
-        <v>21</v>
-      </c>
-      <c r="J64" t="s">
-        <v>21</v>
-      </c>
-      <c r="R64">
-        <v>4304.7353519999997</v>
-      </c>
-    </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z64">
+        <v>5844</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>-0.31535714500000001</v>
+        <v>-0.31532114500000002</v>
       </c>
       <c r="B65">
-        <v>-78.192844030000003</v>
+        <v>-78.192869380000005</v>
       </c>
       <c r="C65">
-        <v>4301.0367880000003</v>
+        <v>4300.5649899999999</v>
       </c>
       <c r="D65">
-        <v>271.99922470000001</v>
+        <v>276.98064219999998</v>
       </c>
       <c r="E65">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="F65">
         <v>7</v>
       </c>
       <c r="G65">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I65" t="s">
         <v>21</v>
@@ -3955,57 +4177,33 @@
         <v>21</v>
       </c>
       <c r="R65">
-        <v>4304.7133789999998</v>
-      </c>
-      <c r="S65">
+        <v>4304.3027339999999</v>
+      </c>
+      <c r="Z65">
+        <v>5883</v>
+      </c>
+    </row>
+    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>-0.31529814499999997</v>
+      </c>
+      <c r="B66">
+        <v>-78.192906930000007</v>
+      </c>
+      <c r="C66">
+        <v>4300.1864480000004</v>
+      </c>
+      <c r="D66">
+        <v>281.9620597</v>
+      </c>
+      <c r="E66">
+        <v>280</v>
+      </c>
+      <c r="F66">
         <v>10</v>
       </c>
-      <c r="T65">
-        <f>D67-D61</f>
-        <v>19.962974499999973</v>
-      </c>
-      <c r="U65">
-        <f>R67-R61</f>
-        <v>-0.68017599999984668</v>
-      </c>
-      <c r="V65">
-        <f t="shared" si="0"/>
-        <v>3.4071876412998851E-2</v>
-      </c>
-      <c r="W65">
-        <f>D65-D58</f>
-        <v>20.149497000000025</v>
-      </c>
-      <c r="X65">
-        <f>R65-R58</f>
-        <v>-2.1972999999888998E-2</v>
-      </c>
-      <c r="Y65">
-        <f t="shared" si="1"/>
-        <v>1.0904986858922073E-3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>-0.31532114500000002</v>
-      </c>
-      <c r="B66">
-        <v>-78.192869380000005</v>
-      </c>
-      <c r="C66">
-        <v>4300.5649899999999</v>
-      </c>
-      <c r="D66">
-        <v>276.98064219999998</v>
-      </c>
-      <c r="E66">
-        <v>275</v>
-      </c>
-      <c r="F66">
-        <v>7</v>
-      </c>
       <c r="G66">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="I66" t="s">
         <v>21</v>
@@ -4014,86 +4212,92 @@
         <v>21</v>
       </c>
       <c r="R66">
-        <v>4304.3027339999999</v>
-      </c>
-    </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>-0.31529814499999997</v>
-      </c>
-      <c r="B67">
-        <v>-78.192906930000007</v>
-      </c>
-      <c r="C67">
-        <v>4300.1864480000004</v>
-      </c>
-      <c r="D67">
-        <v>281.9620597</v>
-      </c>
-      <c r="E67">
-        <v>280</v>
-      </c>
-      <c r="F67">
+        <v>4304.0551759999998</v>
+      </c>
+      <c r="S66">
         <v>10</v>
       </c>
-      <c r="G67">
-        <v>75</v>
-      </c>
-      <c r="I67" t="s">
-        <v>21</v>
-      </c>
-      <c r="J67" t="s">
-        <v>21</v>
-      </c>
-      <c r="R67">
-        <v>4304.0551759999998</v>
-      </c>
-      <c r="S67">
-        <v>10</v>
-      </c>
-      <c r="T67">
-        <f>D69-D65</f>
+      <c r="T66">
+        <f>D68-D64</f>
         <v>19.925669999999968</v>
       </c>
-      <c r="U67">
-        <f>R69-R65</f>
+      <c r="U66">
+        <f>R68-R64</f>
         <v>-1.5356449999999313</v>
       </c>
-      <c r="V67">
+      <c r="V66">
         <f t="shared" si="0"/>
         <v>7.7068675733359723E-2</v>
       </c>
-      <c r="W67">
-        <f>D67-D61</f>
+      <c r="W66">
+        <f>D66-D60</f>
         <v>19.962974499999973</v>
       </c>
-      <c r="X67">
-        <f>R67-R61</f>
+      <c r="X66">
+        <f>R66-R60</f>
         <v>-0.68017599999984668</v>
       </c>
-      <c r="Y67">
+      <c r="Y66">
         <f t="shared" si="1"/>
         <v>3.4071876412998851E-2</v>
       </c>
-    </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z66">
+        <v>5896</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>-0.31528214500000001</v>
+      </c>
+      <c r="B67">
+        <v>-78.192949189999993</v>
+      </c>
+      <c r="C67">
+        <v>4299.8624909999999</v>
+      </c>
+      <c r="D67">
+        <v>286.94347720000002</v>
+      </c>
+      <c r="E67">
+        <v>285</v>
+      </c>
+      <c r="F67">
+        <v>7</v>
+      </c>
+      <c r="G67">
+        <v>20</v>
+      </c>
+      <c r="I67" t="s">
+        <v>21</v>
+      </c>
+      <c r="J67" t="s">
+        <v>21</v>
+      </c>
+      <c r="R67">
+        <v>4303.751953</v>
+      </c>
+      <c r="Z67">
+        <v>5897</v>
+      </c>
+    </row>
+    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>-0.31528214500000001</v>
+        <v>-0.3152741</v>
       </c>
       <c r="B68">
-        <v>-78.192949189999993</v>
+        <v>-78.192992259999997</v>
       </c>
       <c r="C68">
-        <v>4299.8624909999999</v>
+        <v>4299.2638070000003</v>
       </c>
       <c r="D68">
-        <v>286.94347720000002</v>
+        <v>291.92489469999998</v>
       </c>
       <c r="E68">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="F68">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G68">
         <v>20</v>
@@ -4105,148 +4309,184 @@
         <v>21</v>
       </c>
       <c r="R68">
-        <v>4303.751953</v>
-      </c>
-    </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>-0.3152741</v>
-      </c>
-      <c r="B69">
-        <v>-78.192992259999997</v>
-      </c>
-      <c r="C69">
-        <v>4299.2638070000003</v>
-      </c>
-      <c r="D69">
-        <v>291.92489469999998</v>
-      </c>
-      <c r="E69">
-        <v>290</v>
-      </c>
-      <c r="F69">
-        <v>9</v>
-      </c>
-      <c r="G69">
-        <v>20</v>
-      </c>
-      <c r="I69" t="s">
-        <v>21</v>
-      </c>
-      <c r="J69" t="s">
-        <v>21</v>
-      </c>
-      <c r="R69">
         <v>4303.1777339999999</v>
       </c>
-      <c r="S69">
+      <c r="S68">
         <v>10</v>
       </c>
-      <c r="T69">
-        <f>D72-D67</f>
+      <c r="T68">
+        <f>D71-D66</f>
         <v>22.211808200000007</v>
       </c>
-      <c r="U69">
-        <f>R72-R67</f>
+      <c r="U68">
+        <f>R71-R66</f>
         <v>-4.0859380000001693</v>
       </c>
-      <c r="V69">
+      <c r="V68">
         <f t="shared" si="0"/>
         <v>0.1839534162734292</v>
       </c>
-      <c r="W69">
-        <f>D69-D65</f>
+      <c r="W68">
+        <f>D68-D64</f>
         <v>19.925669999999968</v>
       </c>
-      <c r="X69">
-        <f>R69-R65</f>
+      <c r="X68">
+        <f>R68-R64</f>
         <v>-1.5356449999999313</v>
       </c>
-      <c r="Y69">
+      <c r="Y68">
         <f t="shared" si="1"/>
         <v>7.7068675733359723E-2</v>
       </c>
-    </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z68">
+        <v>5910</v>
+      </c>
+    </row>
+    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>-0.31526710000000002</v>
+      </c>
+      <c r="B69">
+        <v>-78.193037419999996</v>
+      </c>
+      <c r="C69">
+        <v>4298.2212229999996</v>
+      </c>
+      <c r="D69">
+        <v>296.9063122</v>
+      </c>
+      <c r="E69">
+        <v>295</v>
+      </c>
+      <c r="F69">
+        <v>4</v>
+      </c>
+      <c r="G69">
+        <v>46</v>
+      </c>
+      <c r="I69" t="s">
+        <v>21</v>
+      </c>
+      <c r="J69" t="s">
+        <v>21</v>
+      </c>
+      <c r="R69">
+        <v>4301.8588870000003</v>
+      </c>
+      <c r="Z69">
+        <v>5919</v>
+      </c>
+    </row>
+    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>-0.31526710000000002</v>
+        <v>-0.31525809999999999</v>
       </c>
       <c r="B70">
-        <v>-78.193037419999996</v>
+        <v>-78.193095479999997</v>
       </c>
       <c r="C70">
-        <v>4298.2212229999996</v>
+        <v>4296.3485410000003</v>
       </c>
       <c r="D70">
-        <v>296.9063122</v>
-      </c>
-      <c r="E70">
-        <v>295</v>
-      </c>
-      <c r="F70">
-        <v>4</v>
-      </c>
-      <c r="G70">
-        <v>46</v>
-      </c>
-      <c r="I70" t="s">
-        <v>21</v>
-      </c>
-      <c r="J70" t="s">
-        <v>21</v>
-      </c>
-      <c r="R70">
-        <v>4301.8588870000003</v>
-      </c>
-    </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.2">
+        <v>303.44711230000001</v>
+      </c>
+      <c r="H70">
+        <v>44383</v>
+      </c>
+      <c r="I70">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="J70">
+        <v>522.96150360000001</v>
+      </c>
+      <c r="K70" t="s">
+        <v>21</v>
+      </c>
+      <c r="L70" t="s">
+        <v>21</v>
+      </c>
+      <c r="M70">
+        <v>6.8719999999999999</v>
+      </c>
+      <c r="N70">
+        <v>626.35540000000003</v>
+      </c>
+      <c r="O70" t="s">
+        <v>22</v>
+      </c>
+      <c r="P70" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA70">
+        <v>5.3289</v>
+      </c>
+      <c r="AC70">
+        <v>8.782</v>
+      </c>
+    </row>
+    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>-0.31525809999999999</v>
+        <v>-0.31525710000000001</v>
       </c>
       <c r="B71">
-        <v>-78.193095479999997</v>
+        <v>-78.193101940000005</v>
       </c>
       <c r="C71">
-        <v>4296.3485410000003</v>
+        <v>4296.0999700000002</v>
       </c>
       <c r="D71">
-        <v>303.44711230000001</v>
-      </c>
-      <c r="H71">
-        <v>44383</v>
-      </c>
-      <c r="I71">
-        <v>0.26500000000000001</v>
-      </c>
-      <c r="J71">
-        <v>522.96150360000001</v>
-      </c>
-      <c r="K71" t="s">
-        <v>21</v>
-      </c>
-      <c r="L71" t="s">
-        <v>21</v>
-      </c>
-      <c r="M71">
-        <v>6.8719999999999999</v>
-      </c>
-      <c r="N71">
-        <v>626.35540000000003</v>
-      </c>
-      <c r="O71" t="s">
-        <v>22</v>
-      </c>
-      <c r="P71" t="s">
-        <v>23</v>
+        <v>304.1738679</v>
+      </c>
+      <c r="E71">
+        <v>300</v>
+      </c>
+      <c r="F71">
+        <v>10.5</v>
+      </c>
+      <c r="G71">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>21</v>
+      </c>
+      <c r="J71" t="s">
+        <v>21</v>
+      </c>
+      <c r="R71">
+        <v>4299.9692379999997</v>
+      </c>
+      <c r="S71">
+        <v>10</v>
+      </c>
+      <c r="T71">
+        <f>D75-D68</f>
+        <v>18.742688000000044</v>
+      </c>
+      <c r="U71">
+        <f>R75-R68</f>
+        <v>-6.681152000000111</v>
+      </c>
+      <c r="V71">
+        <f t="shared" ref="V71:V117" si="2">ABS(U71)/T71</f>
+        <v>0.35646711933742348</v>
+      </c>
+      <c r="W71">
+        <f>D71-D66</f>
+        <v>22.211808200000007</v>
+      </c>
+      <c r="X71">
+        <f>R71-R66</f>
+        <v>-4.0859380000001693</v>
+      </c>
+      <c r="Y71">
+        <f t="shared" ref="Y71:Y121" si="3">ABS(X71)/W71</f>
+        <v>0.1839534162734292</v>
       </c>
       <c r="Z71">
-        <v>5.3289</v>
-      </c>
-      <c r="AB71">
-        <v>8.782</v>
-      </c>
-    </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.2">
+        <v>5921</v>
+      </c>
+    </row>
+    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>-0.31525710000000001</v>
       </c>
@@ -4257,69 +4497,48 @@
         <v>4296.0999700000002</v>
       </c>
       <c r="D72">
-        <v>304.1738679</v>
+        <v>304.35555679999999</v>
       </c>
       <c r="E72">
-        <v>300</v>
-      </c>
-      <c r="F72">
-        <v>10.5</v>
-      </c>
-      <c r="G72">
-        <v>47</v>
+        <v>301</v>
+      </c>
+      <c r="F72" t="s">
+        <v>21</v>
+      </c>
+      <c r="G72" t="s">
+        <v>21</v>
+      </c>
+      <c r="H72" t="s">
+        <v>21</v>
       </c>
       <c r="I72" t="s">
         <v>21</v>
       </c>
-      <c r="J72" t="s">
-        <v>21</v>
+      <c r="Q72" t="s">
+        <v>33</v>
       </c>
       <c r="R72">
         <v>4299.9692379999997</v>
       </c>
-      <c r="S72">
-        <v>10</v>
-      </c>
-      <c r="T72">
-        <f>D76-D69</f>
-        <v>18.742688000000044</v>
-      </c>
-      <c r="U72">
-        <f>R76-R69</f>
-        <v>-6.681152000000111</v>
-      </c>
-      <c r="V72">
-        <f t="shared" ref="V72:V117" si="2">ABS(U72)/T72</f>
-        <v>0.35646711933742348</v>
-      </c>
-      <c r="W72">
-        <f>D72-D67</f>
-        <v>22.211808200000007</v>
-      </c>
-      <c r="X72">
-        <f>R72-R67</f>
-        <v>-4.0859380000001693</v>
-      </c>
-      <c r="Y72">
-        <f t="shared" ref="Y72:Y121" si="3">ABS(X72)/W72</f>
-        <v>0.1839534162734292</v>
-      </c>
-    </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z72">
+        <v>5921</v>
+      </c>
+    </row>
+    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>-0.31525710000000001</v>
+        <v>-0.31525609999999998</v>
       </c>
       <c r="B73">
-        <v>-78.193101940000005</v>
+        <v>-78.193108390000006</v>
       </c>
       <c r="C73">
-        <v>4296.0999700000002</v>
+        <v>4295.8440060000003</v>
       </c>
       <c r="D73">
-        <v>304.35555679999999</v>
+        <v>304.90062349999999</v>
       </c>
       <c r="E73">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="F73" t="s">
         <v>21</v>
@@ -4333,66 +4552,69 @@
       <c r="I73" t="s">
         <v>21</v>
       </c>
-      <c r="Q73" t="s">
-        <v>33</v>
-      </c>
       <c r="R73">
-        <v>4299.9692379999997</v>
-      </c>
-    </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.2">
+        <v>4298.8652339999999</v>
+      </c>
+      <c r="Z73">
+        <v>5922</v>
+      </c>
+    </row>
+    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>-0.31525609999999998</v>
+        <v>-0.315254284</v>
       </c>
       <c r="B74">
-        <v>-78.193108390000006</v>
+        <v>-78.193118920000003</v>
       </c>
       <c r="C74">
-        <v>4295.8440060000003</v>
+        <v>4295.4093759999996</v>
       </c>
       <c r="D74">
-        <v>304.90062349999999</v>
+        <v>305.86178339999998</v>
       </c>
       <c r="E74">
-        <v>304</v>
-      </c>
-      <c r="F74" t="s">
-        <v>21</v>
-      </c>
-      <c r="G74" t="s">
-        <v>21</v>
-      </c>
-      <c r="H74" t="s">
-        <v>21</v>
+        <v>305</v>
+      </c>
+      <c r="F74">
+        <v>4</v>
+      </c>
+      <c r="G74">
+        <v>61</v>
       </c>
       <c r="I74" t="s">
+        <v>21</v>
+      </c>
+      <c r="J74" t="s">
         <v>21</v>
       </c>
       <c r="R74">
         <v>4298.8652339999999</v>
       </c>
-    </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z74">
+        <v>5922</v>
+      </c>
+    </row>
+    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>-0.315254284</v>
+        <v>-0.31526328399999998</v>
       </c>
       <c r="B75">
-        <v>-78.193118920000003</v>
+        <v>-78.193157490000004</v>
       </c>
       <c r="C75">
-        <v>4295.4093759999996</v>
+        <v>4293.650592</v>
       </c>
       <c r="D75">
-        <v>305.86178339999998</v>
+        <v>310.66758270000003</v>
       </c>
       <c r="E75">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="F75">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G75">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="I75" t="s">
         <v>21</v>
@@ -4401,216 +4623,231 @@
         <v>21</v>
       </c>
       <c r="R75">
-        <v>4298.8652339999999</v>
-      </c>
-    </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>-0.31526328399999998</v>
-      </c>
-      <c r="B76">
-        <v>-78.193157490000004</v>
-      </c>
-      <c r="C76">
-        <v>4293.650592</v>
-      </c>
-      <c r="D76">
-        <v>310.66758270000003</v>
-      </c>
-      <c r="E76">
-        <v>310</v>
-      </c>
-      <c r="F76">
-        <v>6</v>
-      </c>
-      <c r="G76">
-        <v>20</v>
-      </c>
-      <c r="I76" t="s">
-        <v>21</v>
-      </c>
-      <c r="J76" t="s">
-        <v>21</v>
-      </c>
-      <c r="R76">
         <v>4296.4965819999998</v>
       </c>
-      <c r="S76">
+      <c r="S75">
         <v>10</v>
       </c>
-      <c r="T76">
-        <f>D79-D72</f>
+      <c r="T75">
+        <f>D78-D71</f>
         <v>16.128718499999991</v>
       </c>
-      <c r="U76">
-        <f>R79-R72</f>
+      <c r="U75">
+        <f>R78-R71</f>
         <v>-5.8828119999998307</v>
       </c>
-      <c r="V76">
+      <c r="V75">
         <f t="shared" si="2"/>
         <v>0.36474143931520869</v>
       </c>
-      <c r="W76">
-        <f>D76-D69</f>
+      <c r="W75">
+        <f>D75-D68</f>
         <v>18.742688000000044</v>
       </c>
-      <c r="X76">
-        <f>R76-R69</f>
+      <c r="X75">
+        <f>R75-R68</f>
         <v>-6.681152000000111</v>
       </c>
-      <c r="Y76">
+      <c r="Y75">
         <f t="shared" si="3"/>
         <v>0.35646711933742348</v>
       </c>
-    </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z75">
+        <v>5924</v>
+      </c>
+    </row>
+    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>-0.31527628400000002</v>
+      </c>
+      <c r="B76">
+        <v>-78.193199579999998</v>
+      </c>
+      <c r="C76">
+        <v>4291.2183510000004</v>
+      </c>
+      <c r="D76">
+        <v>315.47338200000002</v>
+      </c>
+      <c r="E76">
+        <v>315</v>
+      </c>
+      <c r="F76">
+        <v>5</v>
+      </c>
+      <c r="G76">
+        <v>48</v>
+      </c>
+      <c r="I76" t="s">
+        <v>21</v>
+      </c>
+      <c r="J76" t="s">
+        <v>21</v>
+      </c>
+      <c r="R76">
+        <v>4295.2934569999998</v>
+      </c>
+      <c r="Z76">
+        <v>5925</v>
+      </c>
+    </row>
+    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>-0.31527628400000002</v>
+        <v>-0.31529328400000001</v>
       </c>
       <c r="B77">
-        <v>-78.193199579999998</v>
+        <v>-78.193235110000003</v>
       </c>
       <c r="C77">
-        <v>4291.2183510000004</v>
+        <v>4288.947905</v>
       </c>
       <c r="D77">
-        <v>315.47338200000002</v>
+        <v>319.79860129999997</v>
       </c>
       <c r="E77">
-        <v>315</v>
-      </c>
-      <c r="F77">
-        <v>5</v>
-      </c>
-      <c r="G77">
-        <v>48</v>
+        <v>319.5</v>
+      </c>
+      <c r="F77" t="s">
+        <v>21</v>
+      </c>
+      <c r="G77" t="s">
+        <v>21</v>
+      </c>
+      <c r="H77" t="s">
+        <v>21</v>
       </c>
       <c r="I77" t="s">
         <v>21</v>
       </c>
-      <c r="J77" t="s">
-        <v>21</v>
+      <c r="Q77" t="s">
+        <v>34</v>
       </c>
       <c r="R77">
-        <v>4295.2934569999998</v>
-      </c>
-    </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.2">
+        <v>4294.0864259999998</v>
+      </c>
+      <c r="Z77">
+        <v>5926</v>
+      </c>
+    </row>
+    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>-0.31529328400000001</v>
+        <v>-0.31529628399999998</v>
       </c>
       <c r="B78">
-        <v>-78.193235110000003</v>
+        <v>-78.193239559999995</v>
       </c>
       <c r="C78">
-        <v>4288.947905</v>
+        <v>4288.6294129999997</v>
       </c>
       <c r="D78">
-        <v>319.79860129999997</v>
+        <v>320.3025864</v>
       </c>
       <c r="E78">
-        <v>319.5</v>
-      </c>
-      <c r="F78" t="s">
-        <v>21</v>
-      </c>
-      <c r="G78" t="s">
-        <v>21</v>
-      </c>
-      <c r="H78" t="s">
+        <v>320</v>
+      </c>
+      <c r="F78">
+        <v>4</v>
+      </c>
+      <c r="G78">
         <v>21</v>
       </c>
       <c r="I78" t="s">
         <v>21</v>
       </c>
-      <c r="Q78" t="s">
-        <v>34</v>
+      <c r="J78" t="s">
+        <v>21</v>
       </c>
       <c r="R78">
         <v>4294.0864259999998</v>
       </c>
-    </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>-0.31529628399999998</v>
-      </c>
-      <c r="B79">
-        <v>-78.193239559999995</v>
-      </c>
-      <c r="C79">
-        <v>4288.6294129999997</v>
-      </c>
-      <c r="D79">
-        <v>320.3025864</v>
-      </c>
-      <c r="E79">
-        <v>320</v>
-      </c>
-      <c r="F79">
-        <v>4</v>
-      </c>
-      <c r="G79">
-        <v>21</v>
-      </c>
-      <c r="I79" t="s">
-        <v>21</v>
-      </c>
-      <c r="J79" t="s">
-        <v>21</v>
-      </c>
-      <c r="R79">
-        <v>4294.0864259999998</v>
-      </c>
-      <c r="S79">
+      <c r="S78">
         <v>10</v>
       </c>
-      <c r="T79">
-        <f>D81-D76</f>
+      <c r="T78">
+        <f>D80-D75</f>
         <v>19.714704199999971</v>
       </c>
-      <c r="U79">
-        <f>R81-R76</f>
+      <c r="U78">
+        <f>R80-R75</f>
         <v>-6.1616210000001956</v>
       </c>
-      <c r="V79">
+      <c r="V78">
         <f t="shared" si="2"/>
         <v>0.31253935831308111</v>
       </c>
-      <c r="W79">
-        <f>D79-D72</f>
+      <c r="W78">
+        <f>D78-D71</f>
         <v>16.128718499999991</v>
       </c>
-      <c r="X79">
-        <f>R79-R72</f>
+      <c r="X78">
+        <f>R78-R71</f>
         <v>-5.8828119999998307</v>
       </c>
-      <c r="Y79">
+      <c r="Y78">
         <f t="shared" si="3"/>
         <v>0.36474143931520869</v>
       </c>
-    </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z78">
+        <v>5926</v>
+      </c>
+    </row>
+    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>-0.31533028400000002</v>
+      </c>
+      <c r="B79">
+        <v>-78.193268040000007</v>
+      </c>
+      <c r="C79">
+        <v>4286.1962110000004</v>
+      </c>
+      <c r="D79">
+        <v>325.34243659999998</v>
+      </c>
+      <c r="E79">
+        <v>325</v>
+      </c>
+      <c r="F79">
+        <v>16</v>
+      </c>
+      <c r="G79">
+        <v>23</v>
+      </c>
+      <c r="I79" t="s">
+        <v>21</v>
+      </c>
+      <c r="J79" t="s">
+        <v>21</v>
+      </c>
+      <c r="R79">
+        <v>4291.6098629999997</v>
+      </c>
+      <c r="Z79">
+        <v>5928</v>
+      </c>
+    </row>
+    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>-0.31533028400000002</v>
+        <v>-0.31536428399999999</v>
       </c>
       <c r="B80">
-        <v>-78.193268040000007</v>
+        <v>-78.193295509999999</v>
       </c>
       <c r="C80">
-        <v>4286.1962110000004</v>
+        <v>4283.966993</v>
       </c>
       <c r="D80">
-        <v>325.34243659999998</v>
+        <v>330.3822869</v>
       </c>
       <c r="E80">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="F80">
+        <v>6</v>
+      </c>
+      <c r="G80">
         <v>16</v>
       </c>
-      <c r="G80">
-        <v>23</v>
-      </c>
       <c r="I80" t="s">
         <v>21</v>
       </c>
@@ -4618,69 +4855,60 @@
         <v>21</v>
       </c>
       <c r="R80">
-        <v>4291.6098629999997</v>
-      </c>
-    </row>
-    <row r="81" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>-0.31536428399999999</v>
-      </c>
-      <c r="B81">
-        <v>-78.193295509999999</v>
-      </c>
-      <c r="C81">
-        <v>4283.966993</v>
-      </c>
-      <c r="D81">
-        <v>330.3822869</v>
-      </c>
-      <c r="E81">
-        <v>330</v>
-      </c>
-      <c r="F81">
-        <v>6</v>
-      </c>
-      <c r="G81">
-        <v>16</v>
-      </c>
-      <c r="I81" t="s">
-        <v>21</v>
-      </c>
-      <c r="J81" t="s">
-        <v>21</v>
-      </c>
-      <c r="R81">
         <v>4290.3349609999996</v>
       </c>
-      <c r="S81">
+      <c r="S80">
         <v>10</v>
       </c>
-      <c r="T81">
-        <f>D83-D79</f>
+      <c r="T80">
+        <f>D83-D78</f>
         <v>20.15940089999998</v>
       </c>
-      <c r="U81">
-        <f>R83-R79</f>
+      <c r="U80">
+        <f>R83-R78</f>
         <v>-6.340331999999762</v>
       </c>
-      <c r="V81">
+      <c r="V80">
         <f t="shared" si="2"/>
         <v>0.31450994161239026</v>
       </c>
-      <c r="W81">
-        <f>D81-D76</f>
+      <c r="W80">
+        <f>D80-D75</f>
         <v>19.714704199999971</v>
       </c>
-      <c r="X81">
-        <f>R81-R76</f>
+      <c r="X80">
+        <f>R80-R75</f>
         <v>-6.1616210000001956</v>
       </c>
-      <c r="Y81">
+      <c r="Y80">
         <f t="shared" si="3"/>
         <v>0.31253935831308111</v>
       </c>
-    </row>
-    <row r="82" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z80">
+        <v>5929</v>
+      </c>
+    </row>
+    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>-0.31538228390228701</v>
+      </c>
+      <c r="B81">
+        <v>-78.193328924140005</v>
+      </c>
+      <c r="C81" s="1">
+        <v>4282.4393674949697</v>
+      </c>
+      <c r="D81">
+        <v>334.41416704378599</v>
+      </c>
+      <c r="E81">
+        <v>334</v>
+      </c>
+      <c r="Z81">
+        <v>5930</v>
+      </c>
+    </row>
+    <row r="82" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>-0.31538528399999999</v>
       </c>
@@ -4711,8 +4939,11 @@
       <c r="R82">
         <v>4289.048828</v>
       </c>
-    </row>
-    <row r="83" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z82">
+        <v>5930</v>
+      </c>
+    </row>
+    <row r="83" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>-0.31536629999999999</v>
       </c>
@@ -4747,11 +4978,11 @@
         <v>10</v>
       </c>
       <c r="T83">
-        <f>D86-D81</f>
+        <f>D86-D80</f>
         <v>21.127533900000003</v>
       </c>
       <c r="U83">
-        <f>R86-R81</f>
+        <f>R86-R80</f>
         <v>-6.3334959999992861</v>
       </c>
       <c r="V83">
@@ -4759,19 +4990,22 @@
         <v>0.29977450420748281</v>
       </c>
       <c r="W83">
-        <f>D83-D79</f>
+        <f>D83-D78</f>
         <v>20.15940089999998</v>
       </c>
       <c r="X83">
-        <f>R83-R79</f>
+        <f>R83-R78</f>
         <v>-6.340331999999762</v>
       </c>
       <c r="Y83">
         <f t="shared" si="3"/>
         <v>0.31450994161239026</v>
       </c>
-    </row>
-    <row r="84" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z83">
+        <v>5931</v>
+      </c>
+    </row>
+    <row r="84" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>-0.31533841299999998</v>
       </c>
@@ -4805,8 +5039,11 @@
       <c r="R84">
         <v>4285.1533200000003</v>
       </c>
-    </row>
-    <row r="85" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z84">
+        <v>5933</v>
+      </c>
+    </row>
+    <row r="85" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>-0.315331413</v>
       </c>
@@ -4837,8 +5074,11 @@
       <c r="R85">
         <v>4285.1533200000003</v>
       </c>
-    </row>
-    <row r="86" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z85">
+        <v>5933</v>
+      </c>
+    </row>
+    <row r="86" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>-0.31530141299999997</v>
       </c>
@@ -4885,19 +5125,22 @@
         <v>0.31138675825650036</v>
       </c>
       <c r="W86">
-        <f>D86-D81</f>
+        <f>D86-D80</f>
         <v>21.127533900000003</v>
       </c>
       <c r="X86">
-        <f>R86-R81</f>
+        <f>R86-R80</f>
         <v>-6.3334959999992861</v>
       </c>
       <c r="Y86">
         <f t="shared" si="3"/>
         <v>0.29977450420748281</v>
       </c>
-    </row>
-    <row r="87" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z86">
+        <v>5934</v>
+      </c>
+    </row>
+    <row r="87" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>-0.31527041300000003</v>
       </c>
@@ -4928,8 +5171,11 @@
       <c r="R87">
         <v>4282.2661129999997</v>
       </c>
-    </row>
-    <row r="88" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z87">
+        <v>6058</v>
+      </c>
+    </row>
+    <row r="88" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>-0.315238413</v>
       </c>
@@ -4987,8 +5233,11 @@
         <f t="shared" si="3"/>
         <v>0.31138675825650036</v>
       </c>
-    </row>
-    <row r="89" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z88">
+        <v>6093</v>
+      </c>
+    </row>
+    <row r="89" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>-0.31520641300000002</v>
       </c>
@@ -5019,8 +5268,11 @@
       <c r="R89">
         <v>4280.3486329999996</v>
       </c>
-    </row>
-    <row r="90" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z89">
+        <v>6123</v>
+      </c>
+    </row>
+    <row r="90" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>-0.31517941300000002</v>
       </c>
@@ -5054,8 +5306,11 @@
       <c r="R90">
         <v>4279.8378910000001</v>
       </c>
-    </row>
-    <row r="91" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z90">
+        <v>6194</v>
+      </c>
+    </row>
+    <row r="91" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>-0.31517341300000001</v>
       </c>
@@ -5113,8 +5368,11 @@
         <f t="shared" si="3"/>
         <v>0.21198951035382732</v>
       </c>
-    </row>
-    <row r="92" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z91">
+        <v>6194</v>
+      </c>
+    </row>
+    <row r="92" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>-0.31516541300000001</v>
       </c>
@@ -5154,14 +5412,14 @@
       <c r="P92" t="s">
         <v>28</v>
       </c>
-      <c r="Z92">
+      <c r="AA92">
         <v>5.5106999999999999</v>
       </c>
-      <c r="AB92">
+      <c r="AC92">
         <v>8.6765000000000008</v>
       </c>
     </row>
-    <row r="93" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>-0.315157413</v>
       </c>
@@ -5195,8 +5453,11 @@
       <c r="R93">
         <v>4279.1103519999997</v>
       </c>
-    </row>
-    <row r="94" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z93">
+        <v>6195</v>
+      </c>
+    </row>
+    <row r="94" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>-0.31514541299999999</v>
       </c>
@@ -5236,14 +5497,14 @@
       <c r="P94" t="s">
         <v>28</v>
       </c>
-      <c r="Z94">
+      <c r="AA94">
         <v>5.5754999999999999</v>
       </c>
-      <c r="AB94">
+      <c r="AC94">
         <v>8.4142499999999991</v>
       </c>
     </row>
-    <row r="95" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>-0.31514141299999998</v>
       </c>
@@ -5274,8 +5535,11 @@
       <c r="R95">
         <v>4278.279297</v>
       </c>
-    </row>
-    <row r="96" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z95">
+        <v>6196</v>
+      </c>
+    </row>
+    <row r="96" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>-0.315128413</v>
       </c>
@@ -5315,14 +5579,14 @@
       <c r="P96" t="s">
         <v>23</v>
       </c>
-      <c r="Z96">
+      <c r="AA96">
         <v>5.5763999999999996</v>
       </c>
-      <c r="AB96">
+      <c r="AC96">
         <v>8.6765000000000008</v>
       </c>
     </row>
-    <row r="97" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>-0.315109413</v>
       </c>
@@ -5380,8 +5644,11 @@
         <f t="shared" si="3"/>
         <v>0.19225210624013642</v>
       </c>
-    </row>
-    <row r="98" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z97">
+        <v>6301</v>
+      </c>
+    </row>
+    <row r="98" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>-0.315076413</v>
       </c>
@@ -5412,8 +5679,11 @@
       <c r="R98">
         <v>4277.1528319999998</v>
       </c>
-    </row>
-    <row r="99" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z98">
+        <v>6480</v>
+      </c>
+    </row>
+    <row r="99" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>-0.31504441300000002</v>
       </c>
@@ -5471,8 +5741,11 @@
         <f t="shared" si="3"/>
         <v>0.16053515314710137</v>
       </c>
-    </row>
-    <row r="100" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z99">
+        <v>6618</v>
+      </c>
+    </row>
+    <row r="100" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>-0.31502641300000001</v>
       </c>
@@ -5512,14 +5785,14 @@
       <c r="P100" t="s">
         <v>28</v>
       </c>
-      <c r="Z100">
+      <c r="AA100">
         <v>5.9570999999999996</v>
       </c>
-      <c r="AB100">
+      <c r="AC100">
         <v>8.9049999999999994</v>
       </c>
     </row>
-    <row r="101" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>-0.31501341300000002</v>
       </c>
@@ -5553,8 +5826,11 @@
       <c r="R101">
         <v>4276.4887699999999</v>
       </c>
-    </row>
-    <row r="102" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z101">
+        <v>6619</v>
+      </c>
+    </row>
+    <row r="102" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>-0.31498141299999999</v>
       </c>
@@ -5615,8 +5891,11 @@
         <f t="shared" si="3"/>
         <v>7.822220166925084E-2</v>
       </c>
-    </row>
-    <row r="103" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z102">
+        <v>6620</v>
+      </c>
+    </row>
+    <row r="103" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>-0.31495141300000001</v>
       </c>
@@ -5647,8 +5926,11 @@
       <c r="R103">
         <v>4275.7158200000003</v>
       </c>
-    </row>
-    <row r="104" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z103">
+        <v>6621</v>
+      </c>
+    </row>
+    <row r="104" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>-0.31492141299999998</v>
       </c>
@@ -5706,8 +5988,11 @@
         <f t="shared" si="3"/>
         <v>8.1110441376602269E-2</v>
       </c>
-    </row>
-    <row r="105" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z104">
+        <v>6622</v>
+      </c>
+    </row>
+    <row r="105" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>-0.31489241299999998</v>
       </c>
@@ -5738,8 +6023,11 @@
       <c r="R105">
         <v>4274.9091799999997</v>
       </c>
-    </row>
-    <row r="106" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z105">
+        <v>6775</v>
+      </c>
+    </row>
+    <row r="106" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>-0.314887413</v>
       </c>
@@ -5779,14 +6067,14 @@
       <c r="P106" t="s">
         <v>28</v>
       </c>
-      <c r="Z106">
+      <c r="AA106">
         <v>6.0975000000000001</v>
       </c>
-      <c r="AB106">
+      <c r="AC106">
         <v>9.0962499999999995</v>
       </c>
     </row>
-    <row r="107" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>-0.31486541299999998</v>
       </c>
@@ -5844,8 +6132,11 @@
         <f t="shared" si="3"/>
         <v>9.7775553495342796E-2</v>
       </c>
-    </row>
-    <row r="108" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z107">
+        <v>6806</v>
+      </c>
+    </row>
+    <row r="108" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>-0.31483841299999998</v>
       </c>
@@ -5876,8 +6167,11 @@
       <c r="R108">
         <v>4273.1274409999996</v>
       </c>
-    </row>
-    <row r="109" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z108">
+        <v>6808</v>
+      </c>
+    </row>
+    <row r="109" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>-0.31482041300000002</v>
       </c>
@@ -5917,14 +6211,14 @@
       <c r="P109" t="s">
         <v>28</v>
       </c>
-      <c r="Z109">
+      <c r="AA109">
         <v>6.1272000000000002</v>
       </c>
-      <c r="AB109">
+      <c r="AC109">
         <v>8.7294999999999998</v>
       </c>
     </row>
-    <row r="110" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>-0.31481341299999999</v>
       </c>
@@ -5982,8 +6276,11 @@
         <f t="shared" si="3"/>
         <v>0.20463573301687096</v>
       </c>
-    </row>
-    <row r="111" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z110">
+        <v>6810</v>
+      </c>
+    </row>
+    <row r="111" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>-0.31478841299999999</v>
       </c>
@@ -6014,8 +6311,11 @@
       <c r="R111">
         <v>4270.3500979999999</v>
       </c>
-    </row>
-    <row r="112" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z111">
+        <v>6811</v>
+      </c>
+    </row>
+    <row r="112" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>-0.31476541299999999</v>
       </c>
@@ -6073,8 +6373,11 @@
         <f t="shared" si="3"/>
         <v>0.3064402961594937</v>
       </c>
-    </row>
-    <row r="113" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z112">
+        <v>6845</v>
+      </c>
+    </row>
+    <row r="113" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>-0.31474341300000003</v>
       </c>
@@ -6108,8 +6411,11 @@
       <c r="R113">
         <v>4267.5097660000001</v>
       </c>
-    </row>
-    <row r="114" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z113">
+        <v>11181</v>
+      </c>
+    </row>
+    <row r="114" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>-0.31473941300000002</v>
       </c>
@@ -6140,8 +6446,11 @@
       <c r="R114">
         <v>4267.5097660000001</v>
       </c>
-    </row>
-    <row r="115" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z114">
+        <v>11181</v>
+      </c>
+    </row>
+    <row r="115" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>-0.31473441299999999</v>
       </c>
@@ -6181,14 +6490,14 @@
       <c r="P115" t="s">
         <v>28</v>
       </c>
-      <c r="Z115">
+      <c r="AA115">
         <v>10.062900000000001</v>
       </c>
-      <c r="AB115">
+      <c r="AC115">
         <v>9.3177500000000002</v>
       </c>
     </row>
-    <row r="116" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>-0.31473341300000002</v>
       </c>
@@ -6222,8 +6531,11 @@
       <c r="R116">
         <v>4267.5097660000001</v>
       </c>
-    </row>
-    <row r="117" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z116">
+        <v>11181</v>
+      </c>
+    </row>
+    <row r="117" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>-0.314719413</v>
       </c>
@@ -6281,8 +6593,11 @@
         <f t="shared" si="3"/>
         <v>0.19925889381982947</v>
       </c>
-    </row>
-    <row r="118" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z117">
+        <v>11236</v>
+      </c>
+    </row>
+    <row r="118" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>-0.31470741299999999</v>
       </c>
@@ -6322,14 +6637,14 @@
       <c r="P118" t="s">
         <v>28</v>
       </c>
-      <c r="Z118">
+      <c r="AA118">
         <v>10.112399999999999</v>
       </c>
-      <c r="AB118">
+      <c r="AC118">
         <v>8.5785</v>
       </c>
     </row>
-    <row r="119" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>-0.31470241300000001</v>
       </c>
@@ -6360,8 +6675,11 @@
       <c r="R119">
         <v>4267.5097660000001</v>
       </c>
-    </row>
-    <row r="120" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z119">
+        <v>11423</v>
+      </c>
+    </row>
+    <row r="120" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>-0.31469941299999998</v>
       </c>
@@ -6395,11 +6713,14 @@
       <c r="R120">
         <v>4267.5097660000001</v>
       </c>
-      <c r="AA120">
+      <c r="Z120">
+        <v>11423</v>
+      </c>
+      <c r="AB120">
         <v>1.6169999999999999E-3</v>
       </c>
     </row>
-    <row r="121" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>-0.314686413</v>
       </c>
@@ -6452,12 +6773,15 @@
         <v>5.0045138333942148E-2</v>
       </c>
       <c r="Z121">
+        <v>11476</v>
+      </c>
+      <c r="AA121">
         <v>10.112399999999999</v>
       </c>
-      <c r="AA121">
+      <c r="AB121">
         <v>1.6169999999999999E-3</v>
       </c>
-      <c r="AB121">
+      <c r="AC121">
         <v>8.5785</v>
       </c>
     </row>

--- a/ProcessedData/export_to_r/ante_XWD_export_eledata_CO2.xlsx
+++ b/ProcessedData/export_to_r/ante_XWD_export_eledata_CO2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kriddie\OneDrive - University of North Carolina at Chapel Hill\Documents\Ecuador2021\ProcessedData\export_to_r\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2379629-329D-475C-AAD2-69705A781A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C087A0F-842F-4CCF-B77D-AB36F496AABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3345" yWindow="0" windowWidth="22110" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ante_XWD_export_eledata_CO2" sheetId="1" r:id="rId1"/>
@@ -669,9 +669,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1029,16 +1028,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="AA109" sqref="AA109"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Z15" sqref="Z15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="10.875" customWidth="1"/>
-    <col min="6" max="25" width="10.875" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="10.875" customWidth="1"/>
-    <col min="27" max="27" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="27" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
@@ -1152,6 +1148,10 @@
       <c r="Z2">
         <v>250</v>
       </c>
+      <c r="AA2">
+        <f>Z2*3*3*0.0001</f>
+        <v>0.22500000000000001</v>
+      </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -1194,7 +1194,8 @@
         <v>276</v>
       </c>
       <c r="AA3">
-        <v>0.31590000000000001</v>
+        <f>Z3*3*3*0.0001</f>
+        <v>0.24840000000000001</v>
       </c>
       <c r="AB3">
         <v>4.2900000000000002E-4</v>
@@ -1252,6 +1253,10 @@
       <c r="Z4">
         <v>324</v>
       </c>
+      <c r="AA4">
+        <f>Z4*3*3*0.0001</f>
+        <v>0.29160000000000003</v>
+      </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -1309,6 +1314,7 @@
         <v>351</v>
       </c>
       <c r="AA5">
+        <f>Z5*3*3*0.0001</f>
         <v>0.31590000000000001</v>
       </c>
       <c r="AC5">
@@ -1376,6 +1382,10 @@
       <c r="Z6">
         <v>408</v>
       </c>
+      <c r="AA6">
+        <f t="shared" ref="AA6:AA69" si="0">Z6*3*3*0.0001</f>
+        <v>0.36720000000000003</v>
+      </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -1433,6 +1443,7 @@
         <v>522</v>
       </c>
       <c r="AA7">
+        <f t="shared" si="0"/>
         <v>0.4698</v>
       </c>
       <c r="AC7">
@@ -1482,7 +1493,7 @@
         <v>-6.131347999999889</v>
       </c>
       <c r="V8">
-        <f t="shared" ref="V8:V68" si="0">ABS(U8)/T8</f>
+        <f t="shared" ref="V8:V68" si="1">ABS(U8)/T8</f>
         <v>0.28417456583862494</v>
       </c>
       <c r="W8">
@@ -1494,11 +1505,15 @@
         <v>-3.6557619999994131</v>
       </c>
       <c r="Y8">
-        <f t="shared" ref="Y8:Y68" si="1">ABS(X8)/W8</f>
+        <f t="shared" ref="Y8:Y68" si="2">ABS(X8)/W8</f>
         <v>0.33887314148836295</v>
       </c>
       <c r="Z8">
         <v>596</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="0"/>
+        <v>0.53639999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
@@ -1535,6 +1550,10 @@
       <c r="Z9">
         <v>603</v>
       </c>
+      <c r="AA9">
+        <f t="shared" si="0"/>
+        <v>0.54270000000000007</v>
+      </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -1580,7 +1599,8 @@
         <v>613</v>
       </c>
       <c r="AA10">
-        <v>0.55169999999999997</v>
+        <f t="shared" si="0"/>
+        <v>0.55170000000000008</v>
       </c>
       <c r="AC10">
         <v>8.5387500000000003</v>
@@ -1629,7 +1649,7 @@
         <v>-4.0791010000002643</v>
       </c>
       <c r="V11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.20050546436513283</v>
       </c>
       <c r="W11">
@@ -1641,11 +1661,15 @@
         <v>-6.131347999999889</v>
       </c>
       <c r="Y11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.28417456583862494</v>
       </c>
       <c r="Z11">
         <v>613</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="0"/>
+        <v>0.55170000000000008</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
@@ -1692,6 +1716,7 @@
         <v>617</v>
       </c>
       <c r="AA12">
+        <f t="shared" si="0"/>
         <v>0.55530000000000002</v>
       </c>
       <c r="AC12">
@@ -1738,6 +1763,10 @@
       <c r="Z13">
         <v>620</v>
       </c>
+      <c r="AA13">
+        <f t="shared" si="0"/>
+        <v>0.55800000000000005</v>
+      </c>
       <c r="AB13">
         <v>4.2900000000000002E-4</v>
       </c>
@@ -1791,7 +1820,7 @@
         <v>-2.731445000000349</v>
       </c>
       <c r="V14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.2775240790826376E-2</v>
       </c>
       <c r="W14">
@@ -1803,11 +1832,15 @@
         <v>-4.0791010000002643</v>
       </c>
       <c r="Y14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.20050546436513283</v>
       </c>
       <c r="Z14">
         <v>625</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="0"/>
+        <v>0.5625</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
@@ -1844,6 +1877,10 @@
       <c r="Z15">
         <v>2782</v>
       </c>
+      <c r="AA15">
+        <f t="shared" si="0"/>
+        <v>2.5038</v>
+      </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -1889,7 +1926,8 @@
         <v>2782</v>
       </c>
       <c r="AA16">
-        <v>2.5047000000000001</v>
+        <f t="shared" si="0"/>
+        <v>2.5038</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
@@ -1935,7 +1973,7 @@
         <v>-0.32958999999937078</v>
       </c>
       <c r="V17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.7785513304869579E-2</v>
       </c>
       <c r="W17">
@@ -1947,11 +1985,15 @@
         <v>-1.215820999999778</v>
       </c>
       <c r="Y17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.0871161531465263E-2</v>
       </c>
       <c r="Z17">
         <v>2783</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="0"/>
+        <v>2.5047000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
@@ -1988,6 +2030,10 @@
       <c r="Z18">
         <v>2784</v>
       </c>
+      <c r="AA18">
+        <f t="shared" si="0"/>
+        <v>2.5056000000000003</v>
+      </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -2035,7 +2081,7 @@
         <v>-0.57861300000058691</v>
       </c>
       <c r="V19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.5489367634194899E-2</v>
       </c>
       <c r="W19">
@@ -2047,11 +2093,15 @@
         <v>-0.24169900000015332</v>
       </c>
       <c r="Y19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.0564022483801464E-2</v>
       </c>
       <c r="Z19">
         <v>2793</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="0"/>
+        <v>2.5137</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
@@ -2091,6 +2141,10 @@
       <c r="Z20">
         <v>2982</v>
       </c>
+      <c r="AA20">
+        <f t="shared" si="0"/>
+        <v>2.6838000000000002</v>
+      </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -2135,7 +2189,7 @@
         <v>-1.0224610000004759</v>
       </c>
       <c r="V21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.8697049625100507E-2</v>
       </c>
       <c r="W21">
@@ -2147,11 +2201,15 @@
         <v>-0.57861300000058691</v>
       </c>
       <c r="Y21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.5489367634194899E-2</v>
       </c>
       <c r="Z21">
         <v>2994</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" si="0"/>
+        <v>2.6946000000000003</v>
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
@@ -2188,6 +2246,10 @@
       <c r="Z22">
         <v>3004</v>
       </c>
+      <c r="AA22">
+        <f t="shared" si="0"/>
+        <v>2.7036000000000002</v>
+      </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -2226,6 +2288,10 @@
       <c r="Z23">
         <v>3186</v>
       </c>
+      <c r="AA23">
+        <f t="shared" si="0"/>
+        <v>2.8673999999999999</v>
+      </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -2270,7 +2336,7 @@
         <v>-1.3740229999993971</v>
       </c>
       <c r="V24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.3851495706365192E-2</v>
       </c>
       <c r="W24">
@@ -2282,11 +2348,15 @@
         <v>-1.0224610000004759</v>
       </c>
       <c r="Y24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.8697049625100507E-2</v>
       </c>
       <c r="Z24">
         <v>3208</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" si="0"/>
+        <v>2.8872</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
@@ -2323,6 +2393,10 @@
       <c r="Z25">
         <v>3292</v>
       </c>
+      <c r="AA25">
+        <f t="shared" si="0"/>
+        <v>2.9628000000000001</v>
+      </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -2367,7 +2441,7 @@
         <v>-1.2680659999996351</v>
       </c>
       <c r="V26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.86720236721826E-2</v>
       </c>
       <c r="W26">
@@ -2379,11 +2453,15 @@
         <v>-1.3740229999993971</v>
       </c>
       <c r="Y26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.3851495706365192E-2</v>
       </c>
       <c r="Z26">
         <v>3401</v>
+      </c>
+      <c r="AA26">
+        <f t="shared" si="0"/>
+        <v>3.0609000000000002</v>
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.25">
@@ -2426,9 +2504,6 @@
       <c r="P27" t="s">
         <v>28</v>
       </c>
-      <c r="AA27">
-        <v>3.0609000000000002</v>
-      </c>
       <c r="AB27">
         <v>2.8124999999999999E-3</v>
       </c>
@@ -2473,6 +2548,10 @@
       <c r="Z28">
         <v>3415</v>
       </c>
+      <c r="AA28">
+        <f t="shared" si="0"/>
+        <v>3.0735000000000001</v>
+      </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -2508,6 +2587,10 @@
       <c r="Z29">
         <v>3415</v>
       </c>
+      <c r="AA29">
+        <f t="shared" si="0"/>
+        <v>3.0735000000000001</v>
+      </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -2552,7 +2635,7 @@
         <v>-0.92285200000060286</v>
       </c>
       <c r="V30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.4064731298610141E-2</v>
       </c>
       <c r="W30">
@@ -2564,11 +2647,15 @@
         <v>-1.2680659999996351</v>
       </c>
       <c r="Y30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.86720236721826E-2</v>
       </c>
       <c r="Z30">
         <v>3428</v>
+      </c>
+      <c r="AA30">
+        <f t="shared" si="0"/>
+        <v>3.0851999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.25">
@@ -2605,6 +2692,10 @@
       <c r="Z31">
         <v>3444</v>
       </c>
+      <c r="AA31">
+        <f t="shared" si="0"/>
+        <v>3.0996000000000001</v>
+      </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32">
@@ -2649,7 +2740,7 @@
         <v>-0.60253900000043359</v>
       </c>
       <c r="V32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.6804556340074727E-2</v>
       </c>
       <c r="W32">
@@ -2661,11 +2752,15 @@
         <v>-0.92285200000060286</v>
       </c>
       <c r="Y32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.4064731298610141E-2</v>
       </c>
       <c r="Z32">
         <v>4344</v>
+      </c>
+      <c r="AA32">
+        <f t="shared" si="0"/>
+        <v>3.9096000000000002</v>
       </c>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.25">
@@ -2702,6 +2797,10 @@
       <c r="Z33">
         <v>4368</v>
       </c>
+      <c r="AA33">
+        <f t="shared" si="0"/>
+        <v>3.9312</v>
+      </c>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34">
@@ -2746,7 +2845,7 @@
         <v>-0.71875</v>
       </c>
       <c r="V34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.3122316067048021E-2</v>
       </c>
       <c r="W34">
@@ -2758,11 +2857,15 @@
         <v>-0.60253900000043359</v>
       </c>
       <c r="Y34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.6804556340074727E-2</v>
       </c>
       <c r="Z34">
         <v>4394</v>
+      </c>
+      <c r="AA34">
+        <f t="shared" si="0"/>
+        <v>3.9546000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.25">
@@ -2805,9 +2908,6 @@
       <c r="P35" t="s">
         <v>23</v>
       </c>
-      <c r="AA35">
-        <v>3.9590999999999998</v>
-      </c>
       <c r="AC35">
         <v>9.1950000000000003</v>
       </c>
@@ -2846,6 +2946,10 @@
       <c r="Z36">
         <v>4399</v>
       </c>
+      <c r="AA36">
+        <f t="shared" si="0"/>
+        <v>3.9591000000000003</v>
+      </c>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37">
@@ -2881,6 +2985,10 @@
       <c r="Z37">
         <v>4406</v>
       </c>
+      <c r="AA37">
+        <f t="shared" si="0"/>
+        <v>3.9654000000000003</v>
+      </c>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38">
@@ -2925,7 +3033,7 @@
         <v>-0.88525399999980436</v>
       </c>
       <c r="V38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.8775274775862867E-2</v>
       </c>
       <c r="W38">
@@ -2937,11 +3045,15 @@
         <v>-0.71875</v>
       </c>
       <c r="Y38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.3122316067048021E-2</v>
       </c>
       <c r="Z38">
         <v>4406</v>
+      </c>
+      <c r="AA38">
+        <f t="shared" si="0"/>
+        <v>3.9654000000000003</v>
       </c>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.25">
@@ -2978,6 +3090,10 @@
       <c r="Z39">
         <v>4410</v>
       </c>
+      <c r="AA39">
+        <f t="shared" si="0"/>
+        <v>3.9690000000000003</v>
+      </c>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40">
@@ -3022,7 +3138,7 @@
         <v>-1.0761720000000423</v>
       </c>
       <c r="V40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.6166966387321306E-2</v>
       </c>
       <c r="W40">
@@ -3034,11 +3150,15 @@
         <v>-0.88525399999980436</v>
       </c>
       <c r="Y40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.8775274775862867E-2</v>
       </c>
       <c r="Z40">
         <v>4671</v>
+      </c>
+      <c r="AA40">
+        <f t="shared" si="0"/>
+        <v>4.2039</v>
       </c>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.25">
@@ -3075,6 +3195,10 @@
       <c r="Z41">
         <v>4808</v>
       </c>
+      <c r="AA41">
+        <f t="shared" si="0"/>
+        <v>4.3272000000000004</v>
+      </c>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42">
@@ -3119,7 +3243,7 @@
         <v>-1.618652000000111</v>
       </c>
       <c r="V42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.4031943515849774E-2</v>
       </c>
       <c r="W42">
@@ -3131,11 +3255,15 @@
         <v>-1.0761720000000423</v>
       </c>
       <c r="Y42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.6166966387321306E-2</v>
       </c>
       <c r="Z42">
         <v>4816</v>
+      </c>
+      <c r="AA42">
+        <f t="shared" si="0"/>
+        <v>4.3344000000000005</v>
       </c>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.25">
@@ -3175,6 +3303,10 @@
       <c r="Z43">
         <v>4825</v>
       </c>
+      <c r="AA43">
+        <f t="shared" si="0"/>
+        <v>4.3425000000000002</v>
+      </c>
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44">
@@ -3210,6 +3342,10 @@
       <c r="Z44">
         <v>4828</v>
       </c>
+      <c r="AA44">
+        <f t="shared" si="0"/>
+        <v>4.3452000000000002</v>
+      </c>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45">
@@ -3254,7 +3390,7 @@
         <v>-2.274902000000111</v>
       </c>
       <c r="V45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.1085550499524869</v>
       </c>
       <c r="W45">
@@ -3266,11 +3402,15 @@
         <v>-1.5083009999998467</v>
       </c>
       <c r="Y45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.5922674697218459E-2</v>
       </c>
       <c r="Z45">
         <v>4834</v>
+      </c>
+      <c r="AA45">
+        <f t="shared" si="0"/>
+        <v>4.3506</v>
       </c>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.25">
@@ -3307,6 +3447,10 @@
       <c r="Z46">
         <v>4843</v>
       </c>
+      <c r="AA46">
+        <f t="shared" si="0"/>
+        <v>4.3586999999999998</v>
+      </c>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47">
@@ -3345,6 +3489,10 @@
       <c r="Z47">
         <v>4858</v>
       </c>
+      <c r="AA47">
+        <f t="shared" si="0"/>
+        <v>4.3722000000000003</v>
+      </c>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48">
@@ -3389,7 +3537,7 @@
         <v>-2.5380859999995664</v>
       </c>
       <c r="V48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.12279486545199191</v>
       </c>
       <c r="W48">
@@ -3401,11 +3549,15 @@
         <v>-2.274902000000111</v>
       </c>
       <c r="Y48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1085550499524869</v>
       </c>
       <c r="Z48">
         <v>4858</v>
+      </c>
+      <c r="AA48">
+        <f t="shared" si="0"/>
+        <v>4.3722000000000003</v>
       </c>
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.25">
@@ -3448,9 +3600,6 @@
       <c r="P49" t="s">
         <v>28</v>
       </c>
-      <c r="AA49">
-        <v>4.3722000000000003</v>
-      </c>
       <c r="AC49">
         <v>9.0615000000000006</v>
       </c>
@@ -3489,6 +3638,10 @@
       <c r="Z50">
         <v>4930</v>
       </c>
+      <c r="AA50">
+        <f t="shared" si="0"/>
+        <v>4.4370000000000003</v>
+      </c>
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A51">
@@ -3533,7 +3686,7 @@
         <v>-1.4257809999999154</v>
       </c>
       <c r="V51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.0675869338033132E-2</v>
       </c>
       <c r="W51">
@@ -3545,11 +3698,15 @@
         <v>-2.5380859999995664</v>
       </c>
       <c r="Y51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.12279486545199191</v>
       </c>
       <c r="Z51">
         <v>4940</v>
+      </c>
+      <c r="AA51">
+        <f t="shared" si="0"/>
+        <v>4.4460000000000006</v>
       </c>
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.25">
@@ -3586,6 +3743,10 @@
       <c r="Z52">
         <v>5202</v>
       </c>
+      <c r="AA52">
+        <f t="shared" si="0"/>
+        <v>4.6818</v>
+      </c>
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A53">
@@ -3630,7 +3791,7 @@
         <v>-0.30468700000074023</v>
       </c>
       <c r="V53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4483759093955309E-2</v>
       </c>
       <c r="W53">
@@ -3642,11 +3803,15 @@
         <v>-1.4257809999999154</v>
       </c>
       <c r="Y53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.0675869338033132E-2</v>
       </c>
       <c r="Z53">
         <v>5279</v>
+      </c>
+      <c r="AA53">
+        <f t="shared" si="0"/>
+        <v>4.7511000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.25">
@@ -3686,6 +3851,10 @@
       <c r="Z54">
         <v>5279</v>
       </c>
+      <c r="AA54">
+        <f t="shared" si="0"/>
+        <v>4.7511000000000001</v>
+      </c>
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A55">
@@ -3727,9 +3896,6 @@
       <c r="P55" t="s">
         <v>23</v>
       </c>
-      <c r="AA55">
-        <v>4.8293999999999997</v>
-      </c>
       <c r="AC55">
         <v>9.0615000000000006</v>
       </c>
@@ -3768,6 +3934,10 @@
       <c r="Z56">
         <v>5366</v>
       </c>
+      <c r="AA56">
+        <f t="shared" si="0"/>
+        <v>4.8294000000000006</v>
+      </c>
     </row>
     <row r="57" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A57">
@@ -3812,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="V57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W57">
@@ -3824,11 +3994,15 @@
         <v>-0.30468700000074023</v>
       </c>
       <c r="Y57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4483759093955309E-2</v>
       </c>
       <c r="Z57">
         <v>5636</v>
+      </c>
+      <c r="AA57">
+        <f t="shared" si="0"/>
+        <v>5.0724</v>
       </c>
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.25">
@@ -3865,6 +4039,10 @@
       <c r="Z58">
         <v>5704</v>
       </c>
+      <c r="AA58">
+        <f t="shared" si="0"/>
+        <v>5.1336000000000004</v>
+      </c>
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A59">
@@ -3903,6 +4081,10 @@
       <c r="Z59">
         <v>5777</v>
       </c>
+      <c r="AA59">
+        <f t="shared" si="0"/>
+        <v>5.1993</v>
+      </c>
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A60">
@@ -3947,7 +4129,7 @@
         <v>-2.1972999999888998E-2</v>
       </c>
       <c r="V60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0904986858922073E-3</v>
       </c>
       <c r="W60">
@@ -3959,11 +4141,15 @@
         <v>0</v>
       </c>
       <c r="Y60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z60">
         <v>5792</v>
+      </c>
+      <c r="AA60">
+        <f t="shared" si="0"/>
+        <v>5.2128000000000005</v>
       </c>
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.25">
@@ -4003,6 +4189,10 @@
       <c r="Z61">
         <v>5792</v>
       </c>
+      <c r="AA61">
+        <f t="shared" si="0"/>
+        <v>5.2128000000000005</v>
+      </c>
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A62">
@@ -4044,9 +4234,6 @@
       <c r="P62" t="s">
         <v>28</v>
       </c>
-      <c r="AA62">
-        <v>5.2577999999999996</v>
-      </c>
       <c r="AC62">
         <v>8.9602500000000003</v>
       </c>
@@ -4085,6 +4272,10 @@
       <c r="Z63">
         <v>5842</v>
       </c>
+      <c r="AA63">
+        <f t="shared" si="0"/>
+        <v>5.2578000000000005</v>
+      </c>
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A64">
@@ -4129,7 +4320,7 @@
         <v>-0.68017599999984668</v>
       </c>
       <c r="V64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.4071876412998851E-2</v>
       </c>
       <c r="W64">
@@ -4141,11 +4332,15 @@
         <v>-2.1972999999888998E-2</v>
       </c>
       <c r="Y64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0904986858922073E-3</v>
       </c>
       <c r="Z64">
         <v>5844</v>
+      </c>
+      <c r="AA64">
+        <f t="shared" si="0"/>
+        <v>5.2595999999999998</v>
       </c>
     </row>
     <row r="65" spans="1:29" x14ac:dyDescent="0.25">
@@ -4182,6 +4377,10 @@
       <c r="Z65">
         <v>5883</v>
       </c>
+      <c r="AA65">
+        <f t="shared" si="0"/>
+        <v>5.2947000000000006</v>
+      </c>
     </row>
     <row r="66" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A66">
@@ -4226,7 +4425,7 @@
         <v>-1.5356449999999313</v>
       </c>
       <c r="V66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.7068675733359723E-2</v>
       </c>
       <c r="W66">
@@ -4238,11 +4437,15 @@
         <v>-0.68017599999984668</v>
       </c>
       <c r="Y66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.4071876412998851E-2</v>
       </c>
       <c r="Z66">
         <v>5896</v>
+      </c>
+      <c r="AA66">
+        <f t="shared" si="0"/>
+        <v>5.3064</v>
       </c>
     </row>
     <row r="67" spans="1:29" x14ac:dyDescent="0.25">
@@ -4279,6 +4482,10 @@
       <c r="Z67">
         <v>5897</v>
       </c>
+      <c r="AA67">
+        <f t="shared" si="0"/>
+        <v>5.3073000000000006</v>
+      </c>
     </row>
     <row r="68" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A68">
@@ -4323,7 +4530,7 @@
         <v>-4.0859380000001693</v>
       </c>
       <c r="V68">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.1839534162734292</v>
       </c>
       <c r="W68">
@@ -4335,11 +4542,15 @@
         <v>-1.5356449999999313</v>
       </c>
       <c r="Y68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.7068675733359723E-2</v>
       </c>
       <c r="Z68">
         <v>5910</v>
+      </c>
+      <c r="AA68">
+        <f t="shared" si="0"/>
+        <v>5.319</v>
       </c>
     </row>
     <row r="69" spans="1:29" x14ac:dyDescent="0.25">
@@ -4376,6 +4587,10 @@
       <c r="Z69">
         <v>5919</v>
       </c>
+      <c r="AA69">
+        <f t="shared" si="0"/>
+        <v>5.3271000000000006</v>
+      </c>
     </row>
     <row r="70" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A70">
@@ -4417,9 +4632,6 @@
       <c r="P70" t="s">
         <v>23</v>
       </c>
-      <c r="AA70">
-        <v>5.3289</v>
-      </c>
       <c r="AC70">
         <v>8.782</v>
       </c>
@@ -4467,7 +4679,7 @@
         <v>-6.681152000000111</v>
       </c>
       <c r="V71">
-        <f t="shared" ref="V71:V117" si="2">ABS(U71)/T71</f>
+        <f t="shared" ref="V71:V117" si="3">ABS(U71)/T71</f>
         <v>0.35646711933742348</v>
       </c>
       <c r="W71">
@@ -4479,11 +4691,15 @@
         <v>-4.0859380000001693</v>
       </c>
       <c r="Y71">
-        <f t="shared" ref="Y71:Y121" si="3">ABS(X71)/W71</f>
+        <f t="shared" ref="Y71:Y121" si="4">ABS(X71)/W71</f>
         <v>0.1839534162734292</v>
       </c>
       <c r="Z71">
         <v>5921</v>
+      </c>
+      <c r="AA71">
+        <f t="shared" ref="AA70:AA121" si="5">Z71*3*3*0.0001</f>
+        <v>5.3289</v>
       </c>
     </row>
     <row r="72" spans="1:29" x14ac:dyDescent="0.25">
@@ -4523,6 +4739,10 @@
       <c r="Z72">
         <v>5921</v>
       </c>
+      <c r="AA72">
+        <f t="shared" si="5"/>
+        <v>5.3289</v>
+      </c>
     </row>
     <row r="73" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A73">
@@ -4558,6 +4778,10 @@
       <c r="Z73">
         <v>5922</v>
       </c>
+      <c r="AA73">
+        <f t="shared" si="5"/>
+        <v>5.3298000000000005</v>
+      </c>
     </row>
     <row r="74" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A74">
@@ -4593,6 +4817,10 @@
       <c r="Z74">
         <v>5922</v>
       </c>
+      <c r="AA74">
+        <f t="shared" si="5"/>
+        <v>5.3298000000000005</v>
+      </c>
     </row>
     <row r="75" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A75">
@@ -4637,7 +4865,7 @@
         <v>-5.8828119999998307</v>
       </c>
       <c r="V75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.36474143931520869</v>
       </c>
       <c r="W75">
@@ -4649,11 +4877,15 @@
         <v>-6.681152000000111</v>
       </c>
       <c r="Y75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.35646711933742348</v>
       </c>
       <c r="Z75">
         <v>5924</v>
+      </c>
+      <c r="AA75">
+        <f t="shared" si="5"/>
+        <v>5.3315999999999999</v>
       </c>
     </row>
     <row r="76" spans="1:29" x14ac:dyDescent="0.25">
@@ -4690,6 +4922,10 @@
       <c r="Z76">
         <v>5925</v>
       </c>
+      <c r="AA76">
+        <f t="shared" si="5"/>
+        <v>5.3325000000000005</v>
+      </c>
     </row>
     <row r="77" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A77">
@@ -4728,6 +4964,10 @@
       <c r="Z77">
         <v>5926</v>
       </c>
+      <c r="AA77">
+        <f t="shared" si="5"/>
+        <v>5.3334000000000001</v>
+      </c>
     </row>
     <row r="78" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A78">
@@ -4772,7 +5012,7 @@
         <v>-6.1616210000001956</v>
       </c>
       <c r="V78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.31253935831308111</v>
       </c>
       <c r="W78">
@@ -4784,11 +5024,15 @@
         <v>-5.8828119999998307</v>
       </c>
       <c r="Y78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.36474143931520869</v>
       </c>
       <c r="Z78">
         <v>5926</v>
+      </c>
+      <c r="AA78">
+        <f t="shared" si="5"/>
+        <v>5.3334000000000001</v>
       </c>
     </row>
     <row r="79" spans="1:29" x14ac:dyDescent="0.25">
@@ -4825,6 +5069,10 @@
       <c r="Z79">
         <v>5928</v>
       </c>
+      <c r="AA79">
+        <f t="shared" si="5"/>
+        <v>5.3352000000000004</v>
+      </c>
     </row>
     <row r="80" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A80">
@@ -4869,7 +5117,7 @@
         <v>-6.340331999999762</v>
       </c>
       <c r="V80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.31450994161239026</v>
       </c>
       <c r="W80">
@@ -4881,11 +5129,15 @@
         <v>-6.1616210000001956</v>
       </c>
       <c r="Y80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.31253935831308111</v>
       </c>
       <c r="Z80">
         <v>5929</v>
+      </c>
+      <c r="AA80">
+        <f t="shared" si="5"/>
+        <v>5.3361000000000001</v>
       </c>
     </row>
     <row r="81" spans="1:29" x14ac:dyDescent="0.25">
@@ -4895,7 +5147,7 @@
       <c r="B81">
         <v>-78.193328924140005</v>
       </c>
-      <c r="C81" s="1">
+      <c r="C81">
         <v>4282.4393674949697</v>
       </c>
       <c r="D81">
@@ -4906,6 +5158,10 @@
       </c>
       <c r="Z81">
         <v>5930</v>
+      </c>
+      <c r="AA81">
+        <f t="shared" si="5"/>
+        <v>5.3370000000000006</v>
       </c>
     </row>
     <row r="82" spans="1:29" x14ac:dyDescent="0.25">
@@ -4942,6 +5198,10 @@
       <c r="Z82">
         <v>5930</v>
       </c>
+      <c r="AA82">
+        <f t="shared" si="5"/>
+        <v>5.3370000000000006</v>
+      </c>
     </row>
     <row r="83" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A83">
@@ -4986,7 +5246,7 @@
         <v>-6.3334959999992861</v>
       </c>
       <c r="V83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.29977450420748281</v>
       </c>
       <c r="W83">
@@ -4998,11 +5258,15 @@
         <v>-6.340331999999762</v>
       </c>
       <c r="Y83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.31450994161239026</v>
       </c>
       <c r="Z83">
         <v>5931</v>
+      </c>
+      <c r="AA83">
+        <f t="shared" si="5"/>
+        <v>5.3379000000000003</v>
       </c>
     </row>
     <row r="84" spans="1:29" x14ac:dyDescent="0.25">
@@ -5042,6 +5306,10 @@
       <c r="Z84">
         <v>5933</v>
       </c>
+      <c r="AA84">
+        <f t="shared" si="5"/>
+        <v>5.3397000000000006</v>
+      </c>
     </row>
     <row r="85" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A85">
@@ -5077,6 +5345,10 @@
       <c r="Z85">
         <v>5933</v>
       </c>
+      <c r="AA85">
+        <f t="shared" si="5"/>
+        <v>5.3397000000000006</v>
+      </c>
     </row>
     <row r="86" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A86">
@@ -5121,7 +5393,7 @@
         <v>-6.506347999999889</v>
       </c>
       <c r="V86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.31138675825650036</v>
       </c>
       <c r="W86">
@@ -5133,11 +5405,15 @@
         <v>-6.3334959999992861</v>
       </c>
       <c r="Y86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.29977450420748281</v>
       </c>
       <c r="Z86">
         <v>5934</v>
+      </c>
+      <c r="AA86">
+        <f t="shared" si="5"/>
+        <v>5.3406000000000002</v>
       </c>
     </row>
     <row r="87" spans="1:29" x14ac:dyDescent="0.25">
@@ -5174,6 +5450,10 @@
       <c r="Z87">
         <v>6058</v>
       </c>
+      <c r="AA87">
+        <f t="shared" si="5"/>
+        <v>5.4522000000000004</v>
+      </c>
     </row>
     <row r="88" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A88">
@@ -5218,7 +5498,7 @@
         <v>-4.1635740000001533</v>
       </c>
       <c r="V88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.21198951035382732</v>
       </c>
       <c r="W88">
@@ -5230,11 +5510,15 @@
         <v>-6.506347999999889</v>
       </c>
       <c r="Y88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.31138675825650036</v>
       </c>
       <c r="Z88">
         <v>6093</v>
+      </c>
+      <c r="AA88">
+        <f t="shared" si="5"/>
+        <v>5.4837000000000007</v>
       </c>
     </row>
     <row r="89" spans="1:29" x14ac:dyDescent="0.25">
@@ -5271,6 +5555,10 @@
       <c r="Z89">
         <v>6123</v>
       </c>
+      <c r="AA89">
+        <f t="shared" si="5"/>
+        <v>5.5106999999999999</v>
+      </c>
     </row>
     <row r="90" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A90">
@@ -5309,6 +5597,10 @@
       <c r="Z90">
         <v>6194</v>
       </c>
+      <c r="AA90">
+        <f t="shared" si="5"/>
+        <v>5.5746000000000002</v>
+      </c>
     </row>
     <row r="91" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A91">
@@ -5353,7 +5645,7 @@
         <v>-3.6733400000002803</v>
       </c>
       <c r="V91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.19225210624013642</v>
       </c>
       <c r="W91">
@@ -5365,11 +5657,15 @@
         <v>-4.1635740000001533</v>
       </c>
       <c r="Y91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.21198951035382732</v>
       </c>
       <c r="Z91">
         <v>6194</v>
+      </c>
+      <c r="AA91">
+        <f t="shared" si="5"/>
+        <v>5.5746000000000002</v>
       </c>
     </row>
     <row r="92" spans="1:29" x14ac:dyDescent="0.25">
@@ -5412,9 +5708,6 @@
       <c r="P92" t="s">
         <v>28</v>
       </c>
-      <c r="AA92">
-        <v>5.5106999999999999</v>
-      </c>
       <c r="AC92">
         <v>8.6765000000000008</v>
       </c>
@@ -5456,6 +5749,10 @@
       <c r="Z93">
         <v>6195</v>
       </c>
+      <c r="AA93">
+        <f t="shared" si="5"/>
+        <v>5.5754999999999999</v>
+      </c>
     </row>
     <row r="94" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A94">
@@ -5497,9 +5794,6 @@
       <c r="P94" t="s">
         <v>28</v>
       </c>
-      <c r="AA94">
-        <v>5.5754999999999999</v>
-      </c>
       <c r="AC94">
         <v>8.4142499999999991</v>
       </c>
@@ -5538,6 +5832,10 @@
       <c r="Z95">
         <v>6196</v>
       </c>
+      <c r="AA95">
+        <f t="shared" si="5"/>
+        <v>5.5764000000000005</v>
+      </c>
     </row>
     <row r="96" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A96">
@@ -5579,9 +5877,6 @@
       <c r="P96" t="s">
         <v>23</v>
       </c>
-      <c r="AA96">
-        <v>5.5763999999999996</v>
-      </c>
       <c r="AC96">
         <v>8.6765000000000008</v>
       </c>
@@ -5629,7 +5924,7 @@
         <v>-2.9902350000002116</v>
       </c>
       <c r="V97">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.16053515314710137</v>
       </c>
       <c r="W97">
@@ -5641,11 +5936,15 @@
         <v>-3.6733400000002803</v>
       </c>
       <c r="Y97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.19225210624013642</v>
       </c>
       <c r="Z97">
         <v>6301</v>
+      </c>
+      <c r="AA97">
+        <f t="shared" si="5"/>
+        <v>5.6709000000000005</v>
       </c>
     </row>
     <row r="98" spans="1:29" x14ac:dyDescent="0.25">
@@ -5682,6 +5981,10 @@
       <c r="Z98">
         <v>6480</v>
       </c>
+      <c r="AA98">
+        <f t="shared" si="5"/>
+        <v>5.8319999999999999</v>
+      </c>
     </row>
     <row r="99" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A99">
@@ -5726,7 +6029,7 @@
         <v>-1.4648429999997461</v>
       </c>
       <c r="V99">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.822220166925084E-2</v>
       </c>
       <c r="W99">
@@ -5738,11 +6041,15 @@
         <v>-2.9902350000002116</v>
       </c>
       <c r="Y99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.16053515314710137</v>
       </c>
       <c r="Z99">
         <v>6618</v>
+      </c>
+      <c r="AA99">
+        <f t="shared" si="5"/>
+        <v>5.9561999999999999</v>
       </c>
     </row>
     <row r="100" spans="1:29" x14ac:dyDescent="0.25">
@@ -5785,9 +6092,6 @@
       <c r="P100" t="s">
         <v>28</v>
       </c>
-      <c r="AA100">
-        <v>5.9570999999999996</v>
-      </c>
       <c r="AC100">
         <v>8.9049999999999994</v>
       </c>
@@ -5829,6 +6133,10 @@
       <c r="Z101">
         <v>6619</v>
       </c>
+      <c r="AA101">
+        <f t="shared" si="5"/>
+        <v>5.9571000000000005</v>
+      </c>
     </row>
     <row r="102" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A102">
@@ -5876,7 +6184,7 @@
         <v>-1.5351559999999154</v>
       </c>
       <c r="V102">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.1110441376602269E-2</v>
       </c>
       <c r="W102">
@@ -5888,11 +6196,15 @@
         <v>-1.4648429999997461</v>
       </c>
       <c r="Y102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.822220166925084E-2</v>
       </c>
       <c r="Z102">
         <v>6620</v>
+      </c>
+      <c r="AA102">
+        <f t="shared" si="5"/>
+        <v>5.9580000000000002</v>
       </c>
     </row>
     <row r="103" spans="1:29" x14ac:dyDescent="0.25">
@@ -5929,6 +6241,10 @@
       <c r="Z103">
         <v>6621</v>
       </c>
+      <c r="AA103">
+        <f t="shared" si="5"/>
+        <v>5.9588999999999999</v>
+      </c>
     </row>
     <row r="104" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A104">
@@ -5973,7 +6289,7 @@
         <v>-1.8603520000006029</v>
       </c>
       <c r="V104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.7775553495342796E-2</v>
       </c>
       <c r="W104">
@@ -5985,11 +6301,15 @@
         <v>-1.5351559999999154</v>
       </c>
       <c r="Y104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.1110441376602269E-2</v>
       </c>
       <c r="Z104">
         <v>6622</v>
+      </c>
+      <c r="AA104">
+        <f t="shared" si="5"/>
+        <v>5.9598000000000004</v>
       </c>
     </row>
     <row r="105" spans="1:29" x14ac:dyDescent="0.25">
@@ -6026,6 +6346,10 @@
       <c r="Z105">
         <v>6775</v>
       </c>
+      <c r="AA105">
+        <f t="shared" si="5"/>
+        <v>6.0975000000000001</v>
+      </c>
     </row>
     <row r="106" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A106">
@@ -6067,9 +6391,6 @@
       <c r="P106" t="s">
         <v>28</v>
       </c>
-      <c r="AA106">
-        <v>6.0975000000000001</v>
-      </c>
       <c r="AC106">
         <v>9.0962499999999995</v>
       </c>
@@ -6117,7 +6438,7 @@
         <v>-3.893554999999651</v>
       </c>
       <c r="V107">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.20463573301687096</v>
       </c>
       <c r="W107">
@@ -6129,11 +6450,15 @@
         <v>-1.8603520000006029</v>
       </c>
       <c r="Y107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.7775553495342796E-2</v>
       </c>
       <c r="Z107">
         <v>6806</v>
+      </c>
+      <c r="AA107">
+        <f t="shared" si="5"/>
+        <v>6.1254</v>
       </c>
     </row>
     <row r="108" spans="1:29" x14ac:dyDescent="0.25">
@@ -6170,6 +6495,10 @@
       <c r="Z108">
         <v>6808</v>
       </c>
+      <c r="AA108">
+        <f t="shared" si="5"/>
+        <v>6.1272000000000002</v>
+      </c>
     </row>
     <row r="109" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A109">
@@ -6211,9 +6540,6 @@
       <c r="P109" t="s">
         <v>28</v>
       </c>
-      <c r="AA109">
-        <v>6.1272000000000002</v>
-      </c>
       <c r="AC109">
         <v>8.7294999999999998</v>
       </c>
@@ -6261,7 +6587,7 @@
         <v>-5.8305659999996351</v>
       </c>
       <c r="V110">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.3064402961594937</v>
       </c>
       <c r="W110">
@@ -6273,11 +6599,15 @@
         <v>-3.893554999999651</v>
       </c>
       <c r="Y110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.20463573301687096</v>
       </c>
       <c r="Z110">
         <v>6810</v>
+      </c>
+      <c r="AA110">
+        <f t="shared" si="5"/>
+        <v>6.1290000000000004</v>
       </c>
     </row>
     <row r="111" spans="1:29" x14ac:dyDescent="0.25">
@@ -6314,6 +6644,10 @@
       <c r="Z111">
         <v>6811</v>
       </c>
+      <c r="AA111">
+        <f t="shared" si="5"/>
+        <v>6.1299000000000001</v>
+      </c>
     </row>
     <row r="112" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A112">
@@ -6358,7 +6692,7 @@
         <v>-3.909179000000222</v>
       </c>
       <c r="V112">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.19925889381982947</v>
       </c>
       <c r="W112">
@@ -6370,11 +6704,15 @@
         <v>-5.8305659999996351</v>
       </c>
       <c r="Y112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.3064402961594937</v>
       </c>
       <c r="Z112">
         <v>6845</v>
+      </c>
+      <c r="AA112">
+        <f t="shared" si="5"/>
+        <v>6.1604999999999999</v>
       </c>
     </row>
     <row r="113" spans="1:29" x14ac:dyDescent="0.25">
@@ -6414,6 +6752,10 @@
       <c r="Z113">
         <v>11181</v>
       </c>
+      <c r="AA113">
+        <f t="shared" si="5"/>
+        <v>10.062900000000001</v>
+      </c>
     </row>
     <row r="114" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A114">
@@ -6449,6 +6791,10 @@
       <c r="Z114">
         <v>11181</v>
       </c>
+      <c r="AA114">
+        <f t="shared" si="5"/>
+        <v>10.062900000000001</v>
+      </c>
     </row>
     <row r="115" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A115">
@@ -6490,9 +6836,6 @@
       <c r="P115" t="s">
         <v>28</v>
       </c>
-      <c r="AA115">
-        <v>10.062900000000001</v>
-      </c>
       <c r="AC115">
         <v>9.3177500000000002</v>
       </c>
@@ -6534,6 +6877,10 @@
       <c r="Z116">
         <v>11181</v>
       </c>
+      <c r="AA116">
+        <f t="shared" si="5"/>
+        <v>10.062900000000001</v>
+      </c>
     </row>
     <row r="117" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A117">
@@ -6578,7 +6925,7 @@
         <v>-0.90087899999980436</v>
       </c>
       <c r="V117">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.0045138333942148E-2</v>
       </c>
       <c r="W117">
@@ -6590,11 +6937,15 @@
         <v>-3.909179000000222</v>
       </c>
       <c r="Y117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.19925889381982947</v>
       </c>
       <c r="Z117">
         <v>11236</v>
+      </c>
+      <c r="AA117">
+        <f t="shared" si="5"/>
+        <v>10.112400000000001</v>
       </c>
     </row>
     <row r="118" spans="1:29" x14ac:dyDescent="0.25">
@@ -6637,9 +6988,6 @@
       <c r="P118" t="s">
         <v>28</v>
       </c>
-      <c r="AA118">
-        <v>10.112399999999999</v>
-      </c>
       <c r="AC118">
         <v>8.5785</v>
       </c>
@@ -6678,6 +7026,10 @@
       <c r="Z119">
         <v>11423</v>
       </c>
+      <c r="AA119">
+        <f t="shared" si="5"/>
+        <v>10.280700000000001</v>
+      </c>
     </row>
     <row r="120" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A120">
@@ -6716,6 +7068,10 @@
       <c r="Z120">
         <v>11423</v>
       </c>
+      <c r="AA120">
+        <f t="shared" si="5"/>
+        <v>10.280700000000001</v>
+      </c>
       <c r="AB120">
         <v>1.6169999999999999E-3</v>
       </c>
@@ -6769,14 +7125,15 @@
         <v>-0.90087899999980436</v>
       </c>
       <c r="Y121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.0045138333942148E-2</v>
       </c>
       <c r="Z121">
         <v>11476</v>
       </c>
       <c r="AA121">
-        <v>10.112399999999999</v>
+        <f t="shared" si="5"/>
+        <v>10.3284</v>
       </c>
       <c r="AB121">
         <v>1.6169999999999999E-3</v>
